--- a/Geelong_stats.xlsx
+++ b/Geelong_stats.xlsx
@@ -13456,7 +13456,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -18041,7 +18041,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -18696,7 +18696,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -19351,7 +19351,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -31141,7 +31141,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -33106,7 +33106,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -33761,7 +33761,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -35726,7 +35726,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -37036,7 +37036,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kicks (every)</t>
+          <t>Kicks (O)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -37691,7 +37691,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Handballs (row)</t>
+          <t>Handballs (O)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -38346,7 +38346,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disposals (from)</t>
+          <t>Disposals (O)</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -39001,7 +39001,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kick to HB Ratio (kicks)</t>
+          <t>Kick to HB Ratio (O)</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -39656,7 +39656,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marks (below)</t>
+          <t>Marks (O)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -40311,7 +40311,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tackles(is against)</t>
+          <t>Tackles(O)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -40966,7 +40966,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hitouts</t>
+          <t>Hitouts(O)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -41621,7 +41621,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frees For</t>
+          <t>Frees For(O)</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -42276,7 +42276,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frees Against</t>
+          <t>Frees Against(O)</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -42931,7 +42931,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Goals Kicked</t>
+          <t>Goals Kicked(O)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -43586,7 +43586,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1(O)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -44241,7 +44241,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Behinds Kicked</t>
+          <t>Behinds Kicked(O)</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -44896,7 +44896,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rushed Behinds</t>
+          <t>Rushed Behinds(O)</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -45551,7 +45551,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Scoring Shots</t>
+          <t>Scoring Shots(O)</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -46206,7 +46206,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Conversion %</t>
+          <t>Conversion %(O)</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -46861,7 +46861,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Disposals Per Goal</t>
+          <t>Disposals Per Goal(O)</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -47516,7 +47516,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Disposals Per Scoring Shot</t>
+          <t>Disposals Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -48171,7 +48171,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1(O)</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -48826,7 +48826,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1(O)</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -49481,7 +49481,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1(O)</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -50136,7 +50136,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inside 50s</t>
+          <t>Inside 50s(O)</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -50791,7 +50791,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>In50s Per Scoring Shot</t>
+          <t>In50s Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -51446,7 +51446,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In50s Per Goal</t>
+          <t>In50s Per Goal(O)</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -52101,7 +52101,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>% In50s Score</t>
+          <t>% In50s Score(O)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -52756,7 +52756,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>% In50s Goal</t>
+          <t>% In50s Goal(O)</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -53411,7 +53411,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Height(O)</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -54066,7 +54066,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Weight(O)</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -54721,7 +54721,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Age(O)</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -55376,7 +55376,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Av Games</t>
+          <t>Av Games(O)</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -56031,7 +56031,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;50 Games</t>
+          <t>&lt;50 Games(O)</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -56686,7 +56686,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50-99 Games</t>
+          <t>50-99 Games(O)</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -57341,7 +57341,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-149 Games</t>
+          <t>100-149 Games(O)</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -57996,7 +57996,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&gt;150 Games</t>
+          <t>&gt;150 Games(O)</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -58651,7 +58651,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Contested Poss</t>
+          <t>Contested Poss(O)</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -59306,7 +59306,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Uncontested Poss</t>
+          <t>Uncontested Poss(O)</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -59961,7 +59961,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Effective Disposals</t>
+          <t>Effective Disposals(O)</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -60616,7 +60616,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Disposal Efficiency</t>
+          <t>Disposal Efficiency(O)</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -61271,7 +61271,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2(O)</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -61926,7 +61926,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Contested Marks</t>
+          <t>Contested Marks(O)</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -62581,7 +62581,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marks Inside 50</t>
+          <t>Marks Inside 50(O)</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -63236,7 +63236,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2(O)</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -63891,7 +63891,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2(O)</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -64546,7 +64546,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1%ers</t>
+          <t>1%ers(O)</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -65201,7 +65201,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bounces</t>
+          <t>Bounces(O)</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -65856,7 +65856,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2(O)</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -66511,7 +66511,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Goal Assist %</t>
+          <t>Goal Assist %(O)</t>
         </is>
       </c>
       <c r="B102" t="n">

--- a/Geelong_stats.xlsx
+++ b/Geelong_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HI102"/>
+  <dimension ref="A1:HK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,6 +1007,12 @@
       <c r="HI1" t="n">
         <v>9932</v>
       </c>
+      <c r="HJ1" t="n">
+        <v>10127</v>
+      </c>
+      <c r="HK1" t="n">
+        <v>10139</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1662,6 +1668,12 @@
       <c r="HI2" t="n">
         <v>2020</v>
       </c>
+      <c r="HJ2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2317,6 +2329,12 @@
       <c r="HI3" t="n">
         <v>1</v>
       </c>
+      <c r="HJ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2972,6 +2990,12 @@
       <c r="HI4" t="n">
         <v>1</v>
       </c>
+      <c r="HJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3627,6 +3651,12 @@
       <c r="HI5" t="n">
         <v>0</v>
       </c>
+      <c r="HJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4282,6 +4312,12 @@
       <c r="HI6" t="n">
         <v>73</v>
       </c>
+      <c r="HJ6" t="n">
+        <v>108</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4937,6 +4973,12 @@
       <c r="HI7" t="n">
         <v>105</v>
       </c>
+      <c r="HJ7" t="n">
+        <v>47</v>
+      </c>
+      <c r="HK7" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5592,6 +5634,12 @@
       <c r="HI8" t="n">
         <v>-32</v>
       </c>
+      <c r="HJ8" t="n">
+        <v>61</v>
+      </c>
+      <c r="HK8" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6247,6 +6295,12 @@
       <c r="HI9" t="n">
         <v>0</v>
       </c>
+      <c r="HJ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6902,6 +6956,12 @@
       <c r="HI10" t="n">
         <v>9</v>
       </c>
+      <c r="HJ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HK10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7557,6 +7617,12 @@
       <c r="HI11" t="n">
         <v>176</v>
       </c>
+      <c r="HJ11" t="n">
+        <v>201</v>
+      </c>
+      <c r="HK11" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8212,6 +8278,12 @@
       <c r="HI12" t="n">
         <v>98</v>
       </c>
+      <c r="HJ12" t="n">
+        <v>139</v>
+      </c>
+      <c r="HK12" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8867,6 +8939,12 @@
       <c r="HI13" t="n">
         <v>274</v>
       </c>
+      <c r="HJ13" t="n">
+        <v>340</v>
+      </c>
+      <c r="HK13" t="n">
+        <v>276</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9522,6 +9600,12 @@
       <c r="HI14" t="n">
         <v>1.8</v>
       </c>
+      <c r="HJ14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="HK14" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10177,6 +10261,12 @@
       <c r="HI15" t="n">
         <v>84</v>
       </c>
+      <c r="HJ15" t="n">
+        <v>78</v>
+      </c>
+      <c r="HK15" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10832,6 +10922,12 @@
       <c r="HI16" t="n">
         <v>29</v>
       </c>
+      <c r="HJ16" t="n">
+        <v>46</v>
+      </c>
+      <c r="HK16" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11487,6 +11583,12 @@
       <c r="HI17" t="n">
         <v>27</v>
       </c>
+      <c r="HJ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="HK17" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12142,6 +12244,12 @@
       <c r="HI18" t="n">
         <v>15</v>
       </c>
+      <c r="HJ18" t="n">
+        <v>22</v>
+      </c>
+      <c r="HK18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12797,6 +12905,12 @@
       <c r="HI19" t="n">
         <v>24</v>
       </c>
+      <c r="HJ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="HK19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13452,6 +13566,12 @@
       <c r="HI20" t="n">
         <v>11</v>
       </c>
+      <c r="HJ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="HK20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14107,6 +14227,12 @@
       <c r="HI21" t="n">
         <v>11</v>
       </c>
+      <c r="HJ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="HK21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14762,6 +14888,12 @@
       <c r="HI22" t="n">
         <v>7</v>
       </c>
+      <c r="HJ22" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15417,6 +15549,12 @@
       <c r="HI23" t="n">
         <v>0</v>
       </c>
+      <c r="HJ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16072,6 +16210,12 @@
       <c r="HI24" t="n">
         <v>18</v>
       </c>
+      <c r="HJ24" t="n">
+        <v>23</v>
+      </c>
+      <c r="HK24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16727,6 +16871,12 @@
       <c r="HI25" t="n">
         <v>61.1</v>
       </c>
+      <c r="HJ25" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="HK25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17382,6 +17532,12 @@
       <c r="HI26" t="n">
         <v>24.91</v>
       </c>
+      <c r="HJ26" t="n">
+        <v>20</v>
+      </c>
+      <c r="HK26" t="n">
+        <v>25.09</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18037,6 +18193,12 @@
       <c r="HI27" t="n">
         <v>15.22</v>
       </c>
+      <c r="HJ27" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="HK27" t="n">
+        <v>12.55</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18692,6 +18854,12 @@
       <c r="HI28" t="n">
         <v>30</v>
       </c>
+      <c r="HJ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="HK28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19347,6 +19515,12 @@
       <c r="HI29" t="n">
         <v>57</v>
       </c>
+      <c r="HJ29" t="n">
+        <v>46</v>
+      </c>
+      <c r="HK29" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20002,6 +20176,12 @@
       <c r="HI30" t="n">
         <v>21</v>
       </c>
+      <c r="HJ30" t="n">
+        <v>31</v>
+      </c>
+      <c r="HK30" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20657,6 +20837,12 @@
       <c r="HI31" t="n">
         <v>41</v>
       </c>
+      <c r="HJ31" t="n">
+        <v>54</v>
+      </c>
+      <c r="HK31" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21312,6 +21498,12 @@
       <c r="HI32" t="n">
         <v>2.28</v>
       </c>
+      <c r="HJ32" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="HK32" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21967,6 +22159,12 @@
       <c r="HI33" t="n">
         <v>3.73</v>
       </c>
+      <c r="HJ33" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="HK33" t="n">
+        <v>3.91</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22622,6 +22820,12 @@
       <c r="HI34" t="n">
         <v>43.9</v>
       </c>
+      <c r="HJ34" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="HK34" t="n">
+        <v>44.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23277,6 +23481,12 @@
       <c r="HI35" t="n">
         <v>26.8</v>
       </c>
+      <c r="HJ35" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="HK35" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23932,6 +24142,12 @@
       <c r="HI36" t="n">
         <v>188.5</v>
       </c>
+      <c r="HJ36" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="HK36" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24587,6 +24803,12 @@
       <c r="HI37" t="n">
         <v>88.7</v>
       </c>
+      <c r="HJ37" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="HK37" t="n">
+        <v>89.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25242,6 +25464,12 @@
       <c r="HI38" t="n">
         <v>26.91</v>
       </c>
+      <c r="HJ38" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="HK38" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25897,6 +26125,12 @@
       <c r="HI39" t="n">
         <v>126</v>
       </c>
+      <c r="HJ39" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="HK39" t="n">
+        <v>144.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26552,6 +26786,12 @@
       <c r="HI40" t="n">
         <v>9</v>
       </c>
+      <c r="HJ40" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27207,6 +27447,12 @@
       <c r="HI41" t="n">
         <v>2</v>
       </c>
+      <c r="HJ41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27862,6 +28108,12 @@
       <c r="HI42" t="n">
         <v>1</v>
       </c>
+      <c r="HJ42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28517,6 +28769,12 @@
       <c r="HI43" t="n">
         <v>10</v>
       </c>
+      <c r="HJ43" t="n">
+        <v>10</v>
+      </c>
+      <c r="HK43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29172,6 +29430,12 @@
       <c r="HI44" t="n">
         <v>103</v>
       </c>
+      <c r="HJ44" t="n">
+        <v>139</v>
+      </c>
+      <c r="HK44" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29827,6 +30091,12 @@
       <c r="HI45" t="n">
         <v>171</v>
       </c>
+      <c r="HJ45" t="n">
+        <v>207</v>
+      </c>
+      <c r="HK45" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30482,6 +30752,12 @@
       <c r="HI46" t="n">
         <v>213</v>
       </c>
+      <c r="HJ46" t="n">
+        <v>247</v>
+      </c>
+      <c r="HK46" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31137,6 +31413,12 @@
       <c r="HI47" t="n">
         <v>77.7</v>
       </c>
+      <c r="HJ47" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="HK47" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31792,6 +32074,12 @@
       <c r="HI48" t="n">
         <v>57</v>
       </c>
+      <c r="HJ48" t="n">
+        <v>46</v>
+      </c>
+      <c r="HK48" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32447,6 +32735,12 @@
       <c r="HI49" t="n">
         <v>8</v>
       </c>
+      <c r="HJ49" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33102,6 +33396,12 @@
       <c r="HI50" t="n">
         <v>9</v>
       </c>
+      <c r="HJ50" t="n">
+        <v>10</v>
+      </c>
+      <c r="HK50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33757,6 +34057,12 @@
       <c r="HI51" t="n">
         <v>30</v>
       </c>
+      <c r="HJ51" t="n">
+        <v>41</v>
+      </c>
+      <c r="HK51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34412,6 +34718,12 @@
       <c r="HI52" t="n">
         <v>21</v>
       </c>
+      <c r="HJ52" t="n">
+        <v>31</v>
+      </c>
+      <c r="HK52" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35067,6 +35379,12 @@
       <c r="HI53" t="n">
         <v>33</v>
       </c>
+      <c r="HJ53" t="n">
+        <v>51</v>
+      </c>
+      <c r="HK53" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35722,6 +36040,12 @@
       <c r="HI54" t="n">
         <v>3</v>
       </c>
+      <c r="HJ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36377,6 +36701,12 @@
       <c r="HI55" t="n">
         <v>11</v>
       </c>
+      <c r="HJ55" t="n">
+        <v>13</v>
+      </c>
+      <c r="HK55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37032,6 +37362,12 @@
       <c r="HI56" t="n">
         <v>100</v>
       </c>
+      <c r="HJ56" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="HK56" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37687,6 +38023,12 @@
       <c r="HI57" t="n">
         <v>167</v>
       </c>
+      <c r="HJ57" t="n">
+        <v>146</v>
+      </c>
+      <c r="HK57" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38342,6 +38684,12 @@
       <c r="HI58" t="n">
         <v>91</v>
       </c>
+      <c r="HJ58" t="n">
+        <v>104</v>
+      </c>
+      <c r="HK58" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38997,6 +39345,12 @@
       <c r="HI59" t="n">
         <v>258</v>
       </c>
+      <c r="HJ59" t="n">
+        <v>250</v>
+      </c>
+      <c r="HK59" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39652,6 +40006,12 @@
       <c r="HI60" t="n">
         <v>1.84</v>
       </c>
+      <c r="HJ60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="HK60" t="n">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40307,6 +40667,12 @@
       <c r="HI61" t="n">
         <v>64</v>
       </c>
+      <c r="HJ61" t="n">
+        <v>49</v>
+      </c>
+      <c r="HK61" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40962,6 +41328,12 @@
       <c r="HI62" t="n">
         <v>43</v>
       </c>
+      <c r="HJ62" t="n">
+        <v>56</v>
+      </c>
+      <c r="HK62" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41617,6 +41989,12 @@
       <c r="HI63" t="n">
         <v>32</v>
       </c>
+      <c r="HJ63" t="n">
+        <v>33</v>
+      </c>
+      <c r="HK63" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42272,6 +42650,12 @@
       <c r="HI64" t="n">
         <v>24</v>
       </c>
+      <c r="HJ64" t="n">
+        <v>15</v>
+      </c>
+      <c r="HK64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42927,6 +43311,12 @@
       <c r="HI65" t="n">
         <v>15</v>
       </c>
+      <c r="HJ65" t="n">
+        <v>22</v>
+      </c>
+      <c r="HK65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43582,6 +43972,12 @@
       <c r="HI66" t="n">
         <v>17</v>
       </c>
+      <c r="HJ66" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44237,6 +44633,12 @@
       <c r="HI67" t="n">
         <v>13</v>
       </c>
+      <c r="HJ67" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44892,6 +45294,12 @@
       <c r="HI68" t="n">
         <v>2</v>
       </c>
+      <c r="HJ68" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45547,6 +45955,12 @@
       <c r="HI69" t="n">
         <v>1</v>
       </c>
+      <c r="HJ69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46202,6 +46616,12 @@
       <c r="HI70" t="n">
         <v>20</v>
       </c>
+      <c r="HJ70" t="n">
+        <v>12</v>
+      </c>
+      <c r="HK70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46857,6 +47277,12 @@
       <c r="HI71" t="n">
         <v>85</v>
       </c>
+      <c r="HJ71" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="HK71" t="n">
+        <v>63.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47512,6 +47938,12 @@
       <c r="HI72" t="n">
         <v>15.18</v>
       </c>
+      <c r="HJ72" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="HK72" t="n">
+        <v>20.75</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48167,6 +48599,12 @@
       <c r="HI73" t="n">
         <v>12.9</v>
       </c>
+      <c r="HJ73" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="HK73" t="n">
+        <v>13.11</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -48822,6 +49260,12 @@
       <c r="HI74" t="n">
         <v>33</v>
       </c>
+      <c r="HJ74" t="n">
+        <v>23</v>
+      </c>
+      <c r="HK74" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49477,6 +49921,12 @@
       <c r="HI75" t="n">
         <v>37</v>
       </c>
+      <c r="HJ75" t="n">
+        <v>49</v>
+      </c>
+      <c r="HK75" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50132,6 +50582,12 @@
       <c r="HI76" t="n">
         <v>31</v>
       </c>
+      <c r="HJ76" t="n">
+        <v>37</v>
+      </c>
+      <c r="HK76" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -50787,6 +51243,12 @@
       <c r="HI77" t="n">
         <v>39</v>
       </c>
+      <c r="HJ77" t="n">
+        <v>40</v>
+      </c>
+      <c r="HK77" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51442,6 +51904,12 @@
       <c r="HI78" t="n">
         <v>1.95</v>
       </c>
+      <c r="HJ78" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="HK78" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52097,6 +52565,12 @@
       <c r="HI79" t="n">
         <v>2.29</v>
       </c>
+      <c r="HJ79" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="HK79" t="n">
+        <v>3.08</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52752,6 +53226,12 @@
       <c r="HI80" t="n">
         <v>48.7</v>
       </c>
+      <c r="HJ80" t="n">
+        <v>25</v>
+      </c>
+      <c r="HK80" t="n">
+        <v>45.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53407,6 +53887,12 @@
       <c r="HI81" t="n">
         <v>43.6</v>
       </c>
+      <c r="HJ81" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="HK81" t="n">
+        <v>32.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54062,6 +54548,12 @@
       <c r="HI82" t="n">
         <v>187.9</v>
       </c>
+      <c r="HJ82" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="HK82" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54717,6 +55209,12 @@
       <c r="HI83" t="n">
         <v>87.3</v>
       </c>
+      <c r="HJ83" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="HK83" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55372,6 +55870,12 @@
       <c r="HI84" t="n">
         <v>25.66</v>
       </c>
+      <c r="HJ84" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="HK84" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56027,6 +56531,12 @@
       <c r="HI85" t="n">
         <v>101.5</v>
       </c>
+      <c r="HJ85" t="n">
+        <v>144</v>
+      </c>
+      <c r="HK85" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56682,6 +57192,12 @@
       <c r="HI86" t="n">
         <v>8</v>
       </c>
+      <c r="HJ86" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57337,6 +57853,12 @@
       <c r="HI87" t="n">
         <v>3</v>
       </c>
+      <c r="HJ87" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -57992,6 +58514,12 @@
       <c r="HI88" t="n">
         <v>6</v>
       </c>
+      <c r="HJ88" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58647,6 +59175,12 @@
       <c r="HI89" t="n">
         <v>5</v>
       </c>
+      <c r="HJ89" t="n">
+        <v>12</v>
+      </c>
+      <c r="HK89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59302,6 +59836,12 @@
       <c r="HI90" t="n">
         <v>99</v>
       </c>
+      <c r="HJ90" t="n">
+        <v>108</v>
+      </c>
+      <c r="HK90" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -59957,6 +60497,12 @@
       <c r="HI91" t="n">
         <v>150</v>
       </c>
+      <c r="HJ91" t="n">
+        <v>143</v>
+      </c>
+      <c r="HK91" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60612,6 +61158,12 @@
       <c r="HI92" t="n">
         <v>197</v>
       </c>
+      <c r="HJ92" t="n">
+        <v>160</v>
+      </c>
+      <c r="HK92" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61267,6 +61819,12 @@
       <c r="HI93" t="n">
         <v>76.40000000000001</v>
       </c>
+      <c r="HJ93" t="n">
+        <v>64</v>
+      </c>
+      <c r="HK93" t="n">
+        <v>70.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -61922,6 +62480,12 @@
       <c r="HI94" t="n">
         <v>37</v>
       </c>
+      <c r="HJ94" t="n">
+        <v>49</v>
+      </c>
+      <c r="HK94" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62577,6 +63141,12 @@
       <c r="HI95" t="n">
         <v>9</v>
       </c>
+      <c r="HJ95" t="n">
+        <v>8</v>
+      </c>
+      <c r="HK95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63232,6 +63802,12 @@
       <c r="HI96" t="n">
         <v>17</v>
       </c>
+      <c r="HJ96" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -63887,6 +64463,12 @@
       <c r="HI97" t="n">
         <v>33</v>
       </c>
+      <c r="HJ97" t="n">
+        <v>23</v>
+      </c>
+      <c r="HK97" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -64542,6 +65124,12 @@
       <c r="HI98" t="n">
         <v>31</v>
       </c>
+      <c r="HJ98" t="n">
+        <v>37</v>
+      </c>
+      <c r="HK98" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65197,6 +65785,12 @@
       <c r="HI99" t="n">
         <v>33</v>
       </c>
+      <c r="HJ99" t="n">
+        <v>55</v>
+      </c>
+      <c r="HK99" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -65852,6 +66446,12 @@
       <c r="HI100" t="n">
         <v>1</v>
       </c>
+      <c r="HJ100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -66507,6 +67107,12 @@
       <c r="HI101" t="n">
         <v>13</v>
       </c>
+      <c r="HJ101" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67162,8 +67768,14 @@
       <c r="HI102" t="n">
         <v>76.5</v>
       </c>
+      <c r="HJ102" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HK102" t="n">
+        <v>83.3</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Geelong_stats.xlsx
+++ b/Geelong_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HK102"/>
+  <dimension ref="A1:HL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,6 +1013,9 @@
       <c r="HK1" t="n">
         <v>10139</v>
       </c>
+      <c r="HL1" t="n">
+        <v>10151</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1674,6 +1677,9 @@
       <c r="HK2" t="n">
         <v>2020</v>
       </c>
+      <c r="HL2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2335,6 +2341,9 @@
       <c r="HK3" t="n">
         <v>3</v>
       </c>
+      <c r="HL3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2996,6 +3005,9 @@
       <c r="HK4" t="n">
         <v>0</v>
       </c>
+      <c r="HL4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3657,6 +3669,9 @@
       <c r="HK5" t="n">
         <v>1</v>
       </c>
+      <c r="HL5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4318,6 +4333,9 @@
       <c r="HK6" t="n">
         <v>77</v>
       </c>
+      <c r="HL6" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4979,6 +4997,9 @@
       <c r="HK7" t="n">
         <v>79</v>
       </c>
+      <c r="HL7" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5640,6 +5661,9 @@
       <c r="HK8" t="n">
         <v>-2</v>
       </c>
+      <c r="HL8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6301,6 +6325,9 @@
       <c r="HK9" t="n">
         <v>0</v>
       </c>
+      <c r="HL9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6962,6 +6989,9 @@
       <c r="HK10" t="n">
         <v>3</v>
       </c>
+      <c r="HL10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7623,6 +7653,9 @@
       <c r="HK11" t="n">
         <v>162</v>
       </c>
+      <c r="HL11" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8284,6 +8317,9 @@
       <c r="HK12" t="n">
         <v>114</v>
       </c>
+      <c r="HL12" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8945,6 +8981,9 @@
       <c r="HK13" t="n">
         <v>276</v>
       </c>
+      <c r="HL13" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9606,6 +9645,9 @@
       <c r="HK14" t="n">
         <v>1.42</v>
       </c>
+      <c r="HL14" t="n">
+        <v>1.97</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10267,6 +10309,9 @@
       <c r="HK15" t="n">
         <v>52</v>
       </c>
+      <c r="HL15" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10928,6 +10973,9 @@
       <c r="HK16" t="n">
         <v>55</v>
       </c>
+      <c r="HL16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11589,6 +11637,9 @@
       <c r="HK17" t="n">
         <v>22</v>
       </c>
+      <c r="HL17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12250,6 +12301,9 @@
       <c r="HK18" t="n">
         <v>15</v>
       </c>
+      <c r="HL18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12911,6 +12965,9 @@
       <c r="HK19" t="n">
         <v>17</v>
       </c>
+      <c r="HL19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13572,6 +13629,9 @@
       <c r="HK20" t="n">
         <v>11</v>
       </c>
+      <c r="HL20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14233,6 +14293,9 @@
       <c r="HK21" t="n">
         <v>6</v>
       </c>
+      <c r="HL21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14894,6 +14957,9 @@
       <c r="HK22" t="n">
         <v>8</v>
       </c>
+      <c r="HL22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15555,6 +15621,9 @@
       <c r="HK23" t="n">
         <v>3</v>
       </c>
+      <c r="HL23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16216,6 +16285,9 @@
       <c r="HK24" t="n">
         <v>22</v>
       </c>
+      <c r="HL24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16877,6 +16949,9 @@
       <c r="HK25" t="n">
         <v>50</v>
       </c>
+      <c r="HL25" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17538,6 +17613,9 @@
       <c r="HK26" t="n">
         <v>25.09</v>
       </c>
+      <c r="HL26" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18199,6 +18277,9 @@
       <c r="HK27" t="n">
         <v>12.55</v>
       </c>
+      <c r="HL27" t="n">
+        <v>26.25</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18860,6 +18941,9 @@
       <c r="HK28" t="n">
         <v>35</v>
       </c>
+      <c r="HL28" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19521,6 +19605,9 @@
       <c r="HK29" t="n">
         <v>48</v>
       </c>
+      <c r="HL29" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20182,6 +20269,9 @@
       <c r="HK30" t="n">
         <v>24</v>
       </c>
+      <c r="HL30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20843,6 +20933,9 @@
       <c r="HK31" t="n">
         <v>43</v>
       </c>
+      <c r="HL31" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21504,6 +21597,9 @@
       <c r="HK32" t="n">
         <v>1.95</v>
       </c>
+      <c r="HL32" t="n">
+        <v>3.17</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22165,6 +22261,9 @@
       <c r="HK33" t="n">
         <v>3.91</v>
       </c>
+      <c r="HL33" t="n">
+        <v>5.43</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22826,6 +22925,9 @@
       <c r="HK34" t="n">
         <v>44.2</v>
       </c>
+      <c r="HL34" t="n">
+        <v>28.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23487,6 +23589,9 @@
       <c r="HK35" t="n">
         <v>25.6</v>
       </c>
+      <c r="HL35" t="n">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24148,6 +24253,9 @@
       <c r="HK36" t="n">
         <v>188.1</v>
       </c>
+      <c r="HL36" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24809,6 +24917,9 @@
       <c r="HK37" t="n">
         <v>89.59999999999999</v>
       </c>
+      <c r="HL37" t="n">
+        <v>89.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25470,6 +25581,9 @@
       <c r="HK38" t="n">
         <v>28</v>
       </c>
+      <c r="HL38" t="n">
+        <v>27.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26131,6 +26245,9 @@
       <c r="HK39" t="n">
         <v>144.2</v>
       </c>
+      <c r="HL39" t="n">
+        <v>133.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26792,6 +26909,9 @@
       <c r="HK40" t="n">
         <v>6</v>
       </c>
+      <c r="HL40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27453,6 +27573,9 @@
       <c r="HK41" t="n">
         <v>3</v>
       </c>
+      <c r="HL41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28114,6 +28237,9 @@
       <c r="HK42" t="n">
         <v>2</v>
       </c>
+      <c r="HL42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28775,6 +28901,9 @@
       <c r="HK43" t="n">
         <v>11</v>
       </c>
+      <c r="HL43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29436,6 +29565,9 @@
       <c r="HK44" t="n">
         <v>118</v>
       </c>
+      <c r="HL44" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30097,6 +30229,9 @@
       <c r="HK45" t="n">
         <v>153</v>
       </c>
+      <c r="HL45" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30758,6 +30893,9 @@
       <c r="HK46" t="n">
         <v>185</v>
       </c>
+      <c r="HL46" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31419,6 +31557,9 @@
       <c r="HK47" t="n">
         <v>67</v>
       </c>
+      <c r="HL47" t="n">
+        <v>74.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32080,6 +32221,9 @@
       <c r="HK48" t="n">
         <v>48</v>
       </c>
+      <c r="HL48" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32741,6 +32885,9 @@
       <c r="HK49" t="n">
         <v>4</v>
       </c>
+      <c r="HL49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33402,6 +33549,9 @@
       <c r="HK50" t="n">
         <v>10</v>
       </c>
+      <c r="HL50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34063,6 +34213,9 @@
       <c r="HK51" t="n">
         <v>35</v>
       </c>
+      <c r="HL51" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34724,6 +34877,9 @@
       <c r="HK52" t="n">
         <v>24</v>
       </c>
+      <c r="HL52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35385,6 +35541,9 @@
       <c r="HK53" t="n">
         <v>35</v>
       </c>
+      <c r="HL53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36046,6 +36205,9 @@
       <c r="HK54" t="n">
         <v>1</v>
       </c>
+      <c r="HL54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36707,6 +36869,9 @@
       <c r="HK55" t="n">
         <v>6</v>
       </c>
+      <c r="HL55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37368,6 +37533,9 @@
       <c r="HK56" t="n">
         <v>54.5</v>
       </c>
+      <c r="HL56" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38029,6 +38197,9 @@
       <c r="HK57" t="n">
         <v>176</v>
       </c>
+      <c r="HL57" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38690,6 +38861,9 @@
       <c r="HK58" t="n">
         <v>73</v>
       </c>
+      <c r="HL58" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39351,6 +39525,9 @@
       <c r="HK59" t="n">
         <v>249</v>
       </c>
+      <c r="HL59" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40012,6 +40189,9 @@
       <c r="HK60" t="n">
         <v>2.41</v>
       </c>
+      <c r="HL60" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40673,6 +40853,9 @@
       <c r="HK61" t="n">
         <v>82</v>
       </c>
+      <c r="HL61" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41334,6 +41517,9 @@
       <c r="HK62" t="n">
         <v>49</v>
       </c>
+      <c r="HL62" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41995,6 +42181,9 @@
       <c r="HK63" t="n">
         <v>44</v>
       </c>
+      <c r="HL63" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42656,6 +42845,9 @@
       <c r="HK64" t="n">
         <v>17</v>
       </c>
+      <c r="HL64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43317,6 +43509,9 @@
       <c r="HK65" t="n">
         <v>15</v>
       </c>
+      <c r="HL65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43978,6 +44173,9 @@
       <c r="HK66" t="n">
         <v>12</v>
       </c>
+      <c r="HL66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44639,6 +44837,9 @@
       <c r="HK67" t="n">
         <v>10</v>
       </c>
+      <c r="HL67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45300,6 +45501,9 @@
       <c r="HK68" t="n">
         <v>5</v>
       </c>
+      <c r="HL68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45961,6 +46165,9 @@
       <c r="HK69" t="n">
         <v>2</v>
       </c>
+      <c r="HL69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46622,6 +46829,9 @@
       <c r="HK70" t="n">
         <v>19</v>
       </c>
+      <c r="HL70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47283,6 +47493,9 @@
       <c r="HK71" t="n">
         <v>63.2</v>
       </c>
+      <c r="HL71" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47944,6 +48157,9 @@
       <c r="HK72" t="n">
         <v>20.75</v>
       </c>
+      <c r="HL72" t="n">
+        <v>44.67</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48605,6 +48821,9 @@
       <c r="HK73" t="n">
         <v>13.11</v>
       </c>
+      <c r="HL73" t="n">
+        <v>19.14</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49266,6 +49485,9 @@
       <c r="HK74" t="n">
         <v>28</v>
       </c>
+      <c r="HL74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49927,6 +50149,9 @@
       <c r="HK75" t="n">
         <v>47</v>
       </c>
+      <c r="HL75" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50588,6 +50813,9 @@
       <c r="HK76" t="n">
         <v>32</v>
       </c>
+      <c r="HL76" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51249,6 +51477,9 @@
       <c r="HK77" t="n">
         <v>37</v>
       </c>
+      <c r="HL77" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51910,6 +52141,9 @@
       <c r="HK78" t="n">
         <v>1.95</v>
       </c>
+      <c r="HL78" t="n">
+        <v>3.29</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52571,6 +52805,9 @@
       <c r="HK79" t="n">
         <v>3.08</v>
       </c>
+      <c r="HL79" t="n">
+        <v>7.67</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53232,6 +53469,9 @@
       <c r="HK80" t="n">
         <v>45.9</v>
       </c>
+      <c r="HL80" t="n">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53893,6 +54133,9 @@
       <c r="HK81" t="n">
         <v>32.4</v>
       </c>
+      <c r="HL81" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54554,6 +54797,9 @@
       <c r="HK82" t="n">
         <v>189</v>
       </c>
+      <c r="HL82" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55215,6 +55461,9 @@
       <c r="HK83" t="n">
         <v>87.3</v>
       </c>
+      <c r="HL83" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55876,6 +56125,9 @@
       <c r="HK84" t="n">
         <v>26.16</v>
       </c>
+      <c r="HL84" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56537,6 +56789,9 @@
       <c r="HK85" t="n">
         <v>106</v>
       </c>
+      <c r="HL85" t="n">
+        <v>82.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57198,6 +57453,9 @@
       <c r="HK86" t="n">
         <v>7</v>
       </c>
+      <c r="HL86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57859,6 +58117,9 @@
       <c r="HK87" t="n">
         <v>6</v>
       </c>
+      <c r="HL87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58520,6 +58781,9 @@
       <c r="HK88" t="n">
         <v>4</v>
       </c>
+      <c r="HL88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59181,6 +59445,9 @@
       <c r="HK89" t="n">
         <v>5</v>
       </c>
+      <c r="HL89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59842,6 +60109,9 @@
       <c r="HK90" t="n">
         <v>107</v>
       </c>
+      <c r="HL90" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60503,6 +60773,9 @@
       <c r="HK91" t="n">
         <v>142</v>
       </c>
+      <c r="HL91" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61164,6 +61437,9 @@
       <c r="HK92" t="n">
         <v>175</v>
       </c>
+      <c r="HL92" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61825,6 +62101,9 @@
       <c r="HK93" t="n">
         <v>70.3</v>
       </c>
+      <c r="HL93" t="n">
+        <v>63.4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62486,6 +62765,9 @@
       <c r="HK94" t="n">
         <v>47</v>
       </c>
+      <c r="HL94" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63147,6 +63429,9 @@
       <c r="HK95" t="n">
         <v>13</v>
       </c>
+      <c r="HL95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63808,6 +64093,9 @@
       <c r="HK96" t="n">
         <v>15</v>
       </c>
+      <c r="HL96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64469,6 +64757,9 @@
       <c r="HK97" t="n">
         <v>28</v>
       </c>
+      <c r="HL97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65130,6 +65421,9 @@
       <c r="HK98" t="n">
         <v>32</v>
       </c>
+      <c r="HL98" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65791,6 +66085,9 @@
       <c r="HK99" t="n">
         <v>49</v>
       </c>
+      <c r="HL99" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66452,6 +66749,9 @@
       <c r="HK100" t="n">
         <v>3</v>
       </c>
+      <c r="HL100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67113,6 +67413,9 @@
       <c r="HK101" t="n">
         <v>10</v>
       </c>
+      <c r="HL101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67774,8 +68077,11 @@
       <c r="HK102" t="n">
         <v>83.3</v>
       </c>
+      <c r="HL102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Geelong_stats.xlsx
+++ b/Geelong_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HL102"/>
+  <dimension ref="A1:HM102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,6 +1016,9 @@
       <c r="HL1" t="n">
         <v>10151</v>
       </c>
+      <c r="HM1" t="n">
+        <v>10185</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1680,6 +1683,9 @@
       <c r="HL2" t="n">
         <v>2020</v>
       </c>
+      <c r="HM2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2344,6 +2350,9 @@
       <c r="HL3" t="n">
         <v>4</v>
       </c>
+      <c r="HM3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3008,6 +3017,9 @@
       <c r="HL4" t="n">
         <v>1</v>
       </c>
+      <c r="HM4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3672,6 +3684,9 @@
       <c r="HL5" t="n">
         <v>1</v>
       </c>
+      <c r="HM5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4336,6 +4351,9 @@
       <c r="HL6" t="n">
         <v>47</v>
       </c>
+      <c r="HM6" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5000,6 +5018,9 @@
       <c r="HL7" t="n">
         <v>44</v>
       </c>
+      <c r="HM7" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5664,6 +5685,9 @@
       <c r="HL8" t="n">
         <v>3</v>
       </c>
+      <c r="HM8" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6328,6 +6352,9 @@
       <c r="HL9" t="n">
         <v>1</v>
       </c>
+      <c r="HM9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6992,6 +7019,9 @@
       <c r="HL10" t="n">
         <v>11</v>
       </c>
+      <c r="HM10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7656,6 +7686,9 @@
       <c r="HL11" t="n">
         <v>209</v>
       </c>
+      <c r="HM11" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8320,6 +8353,9 @@
       <c r="HL12" t="n">
         <v>106</v>
       </c>
+      <c r="HM12" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8984,6 +9020,9 @@
       <c r="HL13" t="n">
         <v>315</v>
       </c>
+      <c r="HM13" t="n">
+        <v>321</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9648,6 +9687,9 @@
       <c r="HL14" t="n">
         <v>1.97</v>
       </c>
+      <c r="HM14" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10312,6 +10354,9 @@
       <c r="HL15" t="n">
         <v>112</v>
       </c>
+      <c r="HM15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10976,6 +11021,9 @@
       <c r="HL16" t="n">
         <v>52</v>
       </c>
+      <c r="HM16" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11640,6 +11688,9 @@
       <c r="HL17" t="n">
         <v>28</v>
       </c>
+      <c r="HM17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12304,6 +12355,9 @@
       <c r="HL18" t="n">
         <v>16</v>
       </c>
+      <c r="HM18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12968,6 +13022,9 @@
       <c r="HL19" t="n">
         <v>19</v>
       </c>
+      <c r="HM19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13632,6 +13689,9 @@
       <c r="HL20" t="n">
         <v>7</v>
       </c>
+      <c r="HM20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14296,6 +14356,9 @@
       <c r="HL21" t="n">
         <v>7</v>
       </c>
+      <c r="HM21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14960,6 +15023,9 @@
       <c r="HL22" t="n">
         <v>4</v>
       </c>
+      <c r="HM22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15624,6 +15690,9 @@
       <c r="HL23" t="n">
         <v>1</v>
       </c>
+      <c r="HM23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16288,6 +16357,9 @@
       <c r="HL24" t="n">
         <v>12</v>
       </c>
+      <c r="HM24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16952,6 +17024,9 @@
       <c r="HL25" t="n">
         <v>58.3</v>
       </c>
+      <c r="HM25" t="n">
+        <v>54.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17616,6 +17691,9 @@
       <c r="HL26" t="n">
         <v>45</v>
       </c>
+      <c r="HM26" t="n">
+        <v>24.69</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18280,6 +18358,9 @@
       <c r="HL27" t="n">
         <v>26.25</v>
       </c>
+      <c r="HM27" t="n">
+        <v>13.38</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18944,6 +19025,9 @@
       <c r="HL28" t="n">
         <v>23</v>
       </c>
+      <c r="HM28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19608,6 +19692,9 @@
       <c r="HL29" t="n">
         <v>41</v>
       </c>
+      <c r="HM29" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20272,6 +20359,9 @@
       <c r="HL30" t="n">
         <v>39</v>
       </c>
+      <c r="HM30" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20936,6 +21026,9 @@
       <c r="HL31" t="n">
         <v>38</v>
       </c>
+      <c r="HM31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21600,6 +21693,9 @@
       <c r="HL32" t="n">
         <v>3.17</v>
       </c>
+      <c r="HM32" t="n">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22264,6 +22360,9 @@
       <c r="HL33" t="n">
         <v>5.43</v>
       </c>
+      <c r="HM33" t="n">
+        <v>3.85</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22928,6 +23027,9 @@
       <c r="HL34" t="n">
         <v>28.9</v>
       </c>
+      <c r="HM34" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23592,6 +23694,9 @@
       <c r="HL35" t="n">
         <v>18.4</v>
       </c>
+      <c r="HM35" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24256,6 +24361,9 @@
       <c r="HL36" t="n">
         <v>188.1</v>
       </c>
+      <c r="HM36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24920,6 +25028,9 @@
       <c r="HL37" t="n">
         <v>89.40000000000001</v>
       </c>
+      <c r="HM37" t="n">
+        <v>89.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25584,6 +25695,9 @@
       <c r="HL38" t="n">
         <v>27.41</v>
       </c>
+      <c r="HM38" t="n">
+        <v>27.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26248,6 +26362,9 @@
       <c r="HL39" t="n">
         <v>133.3</v>
       </c>
+      <c r="HM39" t="n">
+        <v>142.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26912,6 +27029,9 @@
       <c r="HL40" t="n">
         <v>6</v>
       </c>
+      <c r="HM40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27576,6 +27696,9 @@
       <c r="HL41" t="n">
         <v>5</v>
       </c>
+      <c r="HM41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28240,6 +28363,9 @@
       <c r="HL42" t="n">
         <v>1</v>
       </c>
+      <c r="HM42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28904,6 +29030,9 @@
       <c r="HL43" t="n">
         <v>10</v>
       </c>
+      <c r="HM43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29568,6 +29697,9 @@
       <c r="HL44" t="n">
         <v>108</v>
       </c>
+      <c r="HM44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30232,6 +30364,9 @@
       <c r="HL45" t="n">
         <v>201</v>
       </c>
+      <c r="HM45" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30896,6 +31031,9 @@
       <c r="HL46" t="n">
         <v>235</v>
       </c>
+      <c r="HM46" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31560,6 +31698,9 @@
       <c r="HL47" t="n">
         <v>74.59999999999999</v>
       </c>
+      <c r="HM47" t="n">
+        <v>70.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32224,6 +32365,9 @@
       <c r="HL48" t="n">
         <v>41</v>
       </c>
+      <c r="HM48" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32888,6 +33032,9 @@
       <c r="HL49" t="n">
         <v>7</v>
       </c>
+      <c r="HM49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33552,6 +33699,9 @@
       <c r="HL50" t="n">
         <v>9</v>
       </c>
+      <c r="HM50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34216,6 +34366,9 @@
       <c r="HL51" t="n">
         <v>23</v>
       </c>
+      <c r="HM51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34880,6 +35033,9 @@
       <c r="HL52" t="n">
         <v>39</v>
       </c>
+      <c r="HM52" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35544,6 +35700,9 @@
       <c r="HL53" t="n">
         <v>44</v>
       </c>
+      <c r="HM53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36208,6 +36367,9 @@
       <c r="HL54" t="n">
         <v>1</v>
       </c>
+      <c r="HM54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36872,6 +37034,9 @@
       <c r="HL55" t="n">
         <v>7</v>
       </c>
+      <c r="HM55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37536,6 +37701,9 @@
       <c r="HL56" t="n">
         <v>100</v>
       </c>
+      <c r="HM56" t="n">
+        <v>61.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38200,6 +38368,9 @@
       <c r="HL57" t="n">
         <v>152</v>
       </c>
+      <c r="HM57" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38864,6 +39035,9 @@
       <c r="HL58" t="n">
         <v>116</v>
       </c>
+      <c r="HM58" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39528,6 +39702,9 @@
       <c r="HL59" t="n">
         <v>268</v>
       </c>
+      <c r="HM59" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40192,6 +40369,9 @@
       <c r="HL60" t="n">
         <v>1.31</v>
       </c>
+      <c r="HM60" t="n">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40856,6 +41036,9 @@
       <c r="HL61" t="n">
         <v>52</v>
       </c>
+      <c r="HM61" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41520,6 +41703,9 @@
       <c r="HL62" t="n">
         <v>47</v>
       </c>
+      <c r="HM62" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42184,6 +42370,9 @@
       <c r="HL63" t="n">
         <v>33</v>
       </c>
+      <c r="HM63" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42848,6 +43037,9 @@
       <c r="HL64" t="n">
         <v>19</v>
       </c>
+      <c r="HM64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43512,6 +43704,9 @@
       <c r="HL65" t="n">
         <v>16</v>
       </c>
+      <c r="HM65" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44176,6 +44371,9 @@
       <c r="HL66" t="n">
         <v>6</v>
       </c>
+      <c r="HM66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44840,6 +45038,9 @@
       <c r="HL67" t="n">
         <v>3</v>
       </c>
+      <c r="HM67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45504,6 +45705,9 @@
       <c r="HL68" t="n">
         <v>7</v>
       </c>
+      <c r="HM68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46168,6 +46372,9 @@
       <c r="HL69" t="n">
         <v>1</v>
       </c>
+      <c r="HM69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46832,6 +47039,9 @@
       <c r="HL70" t="n">
         <v>14</v>
       </c>
+      <c r="HM70" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47496,6 +47706,9 @@
       <c r="HL71" t="n">
         <v>42.9</v>
       </c>
+      <c r="HM71" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48160,6 +48373,9 @@
       <c r="HL72" t="n">
         <v>44.67</v>
       </c>
+      <c r="HM72" t="n">
+        <v>31.25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48824,6 +49040,9 @@
       <c r="HL73" t="n">
         <v>19.14</v>
       </c>
+      <c r="HM73" t="n">
+        <v>20.83</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49488,6 +49707,9 @@
       <c r="HL74" t="n">
         <v>32</v>
       </c>
+      <c r="HM74" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50152,6 +50374,9 @@
       <c r="HL75" t="n">
         <v>33</v>
       </c>
+      <c r="HM75" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50816,6 +51041,9 @@
       <c r="HL76" t="n">
         <v>30</v>
       </c>
+      <c r="HM76" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51480,6 +51708,9 @@
       <c r="HL77" t="n">
         <v>46</v>
       </c>
+      <c r="HM77" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52144,6 +52375,9 @@
       <c r="HL78" t="n">
         <v>3.29</v>
       </c>
+      <c r="HM78" t="n">
+        <v>2.33</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52808,6 +53042,9 @@
       <c r="HL79" t="n">
         <v>7.67</v>
       </c>
+      <c r="HM79" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53472,6 +53709,9 @@
       <c r="HL80" t="n">
         <v>28.3</v>
       </c>
+      <c r="HM80" t="n">
+        <v>39.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54136,6 +54376,9 @@
       <c r="HL81" t="n">
         <v>13</v>
       </c>
+      <c r="HM81" t="n">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54800,6 +55043,9 @@
       <c r="HL82" t="n">
         <v>187.4</v>
       </c>
+      <c r="HM82" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55464,6 +55710,9 @@
       <c r="HL83" t="n">
         <v>87.2</v>
       </c>
+      <c r="HM83" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56128,6 +56377,9 @@
       <c r="HL84" t="n">
         <v>25.33</v>
       </c>
+      <c r="HM84" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56792,6 +57044,9 @@
       <c r="HL85" t="n">
         <v>82.7</v>
       </c>
+      <c r="HM85" t="n">
+        <v>76.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57456,6 +57711,9 @@
       <c r="HL86" t="n">
         <v>7</v>
       </c>
+      <c r="HM86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58120,6 +58378,9 @@
       <c r="HL87" t="n">
         <v>8</v>
       </c>
+      <c r="HM87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58784,6 +59045,9 @@
       <c r="HL88" t="n">
         <v>5</v>
       </c>
+      <c r="HM88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59448,6 +59712,9 @@
       <c r="HL89" t="n">
         <v>2</v>
       </c>
+      <c r="HM89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60112,6 +60379,9 @@
       <c r="HL90" t="n">
         <v>115</v>
       </c>
+      <c r="HM90" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60776,6 +61046,9 @@
       <c r="HL91" t="n">
         <v>147</v>
       </c>
+      <c r="HM91" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61440,6 +61713,9 @@
       <c r="HL92" t="n">
         <v>170</v>
       </c>
+      <c r="HM92" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62104,6 +62380,9 @@
       <c r="HL93" t="n">
         <v>63.4</v>
       </c>
+      <c r="HM93" t="n">
+        <v>65.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62768,6 +63047,9 @@
       <c r="HL94" t="n">
         <v>33</v>
       </c>
+      <c r="HM94" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63432,6 +63714,9 @@
       <c r="HL95" t="n">
         <v>6</v>
       </c>
+      <c r="HM95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64096,6 +64381,9 @@
       <c r="HL96" t="n">
         <v>6</v>
       </c>
+      <c r="HM96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64760,6 +65048,9 @@
       <c r="HL97" t="n">
         <v>32</v>
       </c>
+      <c r="HM97" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65424,6 +65715,9 @@
       <c r="HL98" t="n">
         <v>30</v>
       </c>
+      <c r="HM98" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66088,6 +66382,9 @@
       <c r="HL99" t="n">
         <v>46</v>
       </c>
+      <c r="HM99" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66752,6 +67049,9 @@
       <c r="HL100" t="n">
         <v>0</v>
       </c>
+      <c r="HM100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67416,6 +67716,9 @@
       <c r="HL101" t="n">
         <v>3</v>
       </c>
+      <c r="HM101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68080,6 +68383,9 @@
       <c r="HL102" t="n">
         <v>50</v>
       </c>
+      <c r="HM102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Geelong_stats.xlsx
+++ b/Geelong_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HM102"/>
+  <dimension ref="A1:HP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,6 +1019,15 @@
       <c r="HM1" t="n">
         <v>10185</v>
       </c>
+      <c r="HN1" t="n">
+        <v>10209</v>
+      </c>
+      <c r="HO1" t="n">
+        <v>10218</v>
+      </c>
+      <c r="HP1" t="n">
+        <v>10235</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1686,6 +1695,15 @@
       <c r="HM2" t="n">
         <v>2020</v>
       </c>
+      <c r="HN2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2353,6 +2371,15 @@
       <c r="HM3" t="n">
         <v>5</v>
       </c>
+      <c r="HN3" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>7</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3020,6 +3047,15 @@
       <c r="HM4" t="n">
         <v>0</v>
       </c>
+      <c r="HN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3687,6 +3723,15 @@
       <c r="HM5" t="n">
         <v>0</v>
       </c>
+      <c r="HN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4354,6 +4399,15 @@
       <c r="HM6" t="n">
         <v>89</v>
       </c>
+      <c r="HN6" t="n">
+        <v>73</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>35</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5021,6 +5075,15 @@
       <c r="HM7" t="n">
         <v>52</v>
       </c>
+      <c r="HN7" t="n">
+        <v>46</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>57</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5688,6 +5751,15 @@
       <c r="HM8" t="n">
         <v>37</v>
       </c>
+      <c r="HN8" t="n">
+        <v>27</v>
+      </c>
+      <c r="HO8" t="n">
+        <v>-22</v>
+      </c>
+      <c r="HP8" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6355,6 +6427,15 @@
       <c r="HM9" t="n">
         <v>1</v>
       </c>
+      <c r="HN9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7022,6 +7103,15 @@
       <c r="HM10" t="n">
         <v>8</v>
       </c>
+      <c r="HN10" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO10" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7689,6 +7779,15 @@
       <c r="HM11" t="n">
         <v>184</v>
       </c>
+      <c r="HN11" t="n">
+        <v>192</v>
+      </c>
+      <c r="HO11" t="n">
+        <v>179</v>
+      </c>
+      <c r="HP11" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8356,6 +8455,15 @@
       <c r="HM12" t="n">
         <v>137</v>
       </c>
+      <c r="HN12" t="n">
+        <v>123</v>
+      </c>
+      <c r="HO12" t="n">
+        <v>104</v>
+      </c>
+      <c r="HP12" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9023,6 +9131,15 @@
       <c r="HM13" t="n">
         <v>321</v>
       </c>
+      <c r="HN13" t="n">
+        <v>315</v>
+      </c>
+      <c r="HO13" t="n">
+        <v>283</v>
+      </c>
+      <c r="HP13" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9690,6 +9807,15 @@
       <c r="HM14" t="n">
         <v>1.34</v>
       </c>
+      <c r="HN14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="HO14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="HP14" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10357,6 +10483,15 @@
       <c r="HM15" t="n">
         <v>81</v>
       </c>
+      <c r="HN15" t="n">
+        <v>75</v>
+      </c>
+      <c r="HO15" t="n">
+        <v>60</v>
+      </c>
+      <c r="HP15" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11024,6 +11159,15 @@
       <c r="HM16" t="n">
         <v>62</v>
       </c>
+      <c r="HN16" t="n">
+        <v>66</v>
+      </c>
+      <c r="HO16" t="n">
+        <v>49</v>
+      </c>
+      <c r="HP16" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11691,6 +11835,15 @@
       <c r="HM17" t="n">
         <v>32</v>
       </c>
+      <c r="HN17" t="n">
+        <v>22</v>
+      </c>
+      <c r="HO17" t="n">
+        <v>32</v>
+      </c>
+      <c r="HP17" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12358,6 +12511,15 @@
       <c r="HM18" t="n">
         <v>11</v>
       </c>
+      <c r="HN18" t="n">
+        <v>20</v>
+      </c>
+      <c r="HO18" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13025,6 +13187,15 @@
       <c r="HM19" t="n">
         <v>22</v>
       </c>
+      <c r="HN19" t="n">
+        <v>25</v>
+      </c>
+      <c r="HO19" t="n">
+        <v>22</v>
+      </c>
+      <c r="HP19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13692,6 +13863,15 @@
       <c r="HM20" t="n">
         <v>13</v>
       </c>
+      <c r="HN20" t="n">
+        <v>11</v>
+      </c>
+      <c r="HO20" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14359,6 +14539,15 @@
       <c r="HM21" t="n">
         <v>8</v>
       </c>
+      <c r="HN21" t="n">
+        <v>8</v>
+      </c>
+      <c r="HO21" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15026,6 +15215,15 @@
       <c r="HM22" t="n">
         <v>10</v>
       </c>
+      <c r="HN22" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO22" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15693,6 +15891,15 @@
       <c r="HM23" t="n">
         <v>1</v>
       </c>
+      <c r="HN23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16360,6 +16567,15 @@
       <c r="HM24" t="n">
         <v>24</v>
       </c>
+      <c r="HN24" t="n">
+        <v>18</v>
+      </c>
+      <c r="HO24" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17027,6 +17243,15 @@
       <c r="HM25" t="n">
         <v>54.2</v>
       </c>
+      <c r="HN25" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="HO25" t="n">
+        <v>50</v>
+      </c>
+      <c r="HP25" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17694,6 +17919,15 @@
       <c r="HM26" t="n">
         <v>24.69</v>
       </c>
+      <c r="HN26" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="HO26" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="HP26" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18361,6 +18595,15 @@
       <c r="HM27" t="n">
         <v>13.38</v>
       </c>
+      <c r="HN27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="HO27" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="HP27" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19028,6 +19271,15 @@
       <c r="HM28" t="n">
         <v>33</v>
       </c>
+      <c r="HN28" t="n">
+        <v>34</v>
+      </c>
+      <c r="HO28" t="n">
+        <v>40</v>
+      </c>
+      <c r="HP28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19695,6 +19947,15 @@
       <c r="HM29" t="n">
         <v>58</v>
       </c>
+      <c r="HN29" t="n">
+        <v>53</v>
+      </c>
+      <c r="HO29" t="n">
+        <v>47</v>
+      </c>
+      <c r="HP29" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20362,6 +20623,15 @@
       <c r="HM30" t="n">
         <v>18</v>
       </c>
+      <c r="HN30" t="n">
+        <v>37</v>
+      </c>
+      <c r="HO30" t="n">
+        <v>37</v>
+      </c>
+      <c r="HP30" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21029,6 +21299,15 @@
       <c r="HM31" t="n">
         <v>50</v>
       </c>
+      <c r="HN31" t="n">
+        <v>38</v>
+      </c>
+      <c r="HO31" t="n">
+        <v>31</v>
+      </c>
+      <c r="HP31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21696,6 +21975,15 @@
       <c r="HM32" t="n">
         <v>2.08</v>
       </c>
+      <c r="HN32" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="HO32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="HP32" t="n">
+        <v>2.61</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22363,6 +22651,15 @@
       <c r="HM33" t="n">
         <v>3.85</v>
       </c>
+      <c r="HN33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="HO33" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="HP33" t="n">
+        <v>7.83</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23030,6 +23327,15 @@
       <c r="HM34" t="n">
         <v>46</v>
       </c>
+      <c r="HN34" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="HO34" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HP34" t="n">
+        <v>29.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23697,6 +24003,15 @@
       <c r="HM35" t="n">
         <v>26</v>
       </c>
+      <c r="HN35" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="HO35" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="HP35" t="n">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24364,6 +24679,15 @@
       <c r="HM36" t="n">
         <v>188.4</v>
       </c>
+      <c r="HN36" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="HO36" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="HP36" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25031,6 +25355,15 @@
       <c r="HM37" t="n">
         <v>89.40000000000001</v>
       </c>
+      <c r="HN37" t="n">
+        <v>89</v>
+      </c>
+      <c r="HO37" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="HP37" t="n">
+        <v>88.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25698,6 +26031,15 @@
       <c r="HM38" t="n">
         <v>27.66</v>
       </c>
+      <c r="HN38" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="HO38" t="n">
+        <v>27.24</v>
+      </c>
+      <c r="HP38" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26365,6 +26707,15 @@
       <c r="HM39" t="n">
         <v>142.5</v>
       </c>
+      <c r="HN39" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="HO39" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="HP39" t="n">
+        <v>110.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27032,6 +27383,15 @@
       <c r="HM40" t="n">
         <v>5</v>
       </c>
+      <c r="HN40" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO40" t="n">
+        <v>6</v>
+      </c>
+      <c r="HP40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27699,6 +28059,15 @@
       <c r="HM41" t="n">
         <v>5</v>
       </c>
+      <c r="HN41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28366,6 +28735,15 @@
       <c r="HM42" t="n">
         <v>1</v>
       </c>
+      <c r="HN42" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO42" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29033,6 +29411,15 @@
       <c r="HM43" t="n">
         <v>11</v>
       </c>
+      <c r="HN43" t="n">
+        <v>10</v>
+      </c>
+      <c r="HO43" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29700,6 +30087,15 @@
       <c r="HM44" t="n">
         <v>120</v>
       </c>
+      <c r="HN44" t="n">
+        <v>130</v>
+      </c>
+      <c r="HO44" t="n">
+        <v>122</v>
+      </c>
+      <c r="HP44" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30367,6 +30763,15 @@
       <c r="HM45" t="n">
         <v>206</v>
       </c>
+      <c r="HN45" t="n">
+        <v>177</v>
+      </c>
+      <c r="HO45" t="n">
+        <v>151</v>
+      </c>
+      <c r="HP45" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31034,6 +31439,15 @@
       <c r="HM46" t="n">
         <v>226</v>
       </c>
+      <c r="HN46" t="n">
+        <v>222</v>
+      </c>
+      <c r="HO46" t="n">
+        <v>184</v>
+      </c>
+      <c r="HP46" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31701,6 +32115,15 @@
       <c r="HM47" t="n">
         <v>70.40000000000001</v>
       </c>
+      <c r="HN47" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="HO47" t="n">
+        <v>65</v>
+      </c>
+      <c r="HP47" t="n">
+        <v>58.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32368,6 +32791,15 @@
       <c r="HM48" t="n">
         <v>58</v>
       </c>
+      <c r="HN48" t="n">
+        <v>53</v>
+      </c>
+      <c r="HO48" t="n">
+        <v>47</v>
+      </c>
+      <c r="HP48" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33035,6 +33467,15 @@
       <c r="HM49" t="n">
         <v>10</v>
       </c>
+      <c r="HN49" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO49" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33702,6 +34143,15 @@
       <c r="HM50" t="n">
         <v>14</v>
       </c>
+      <c r="HN50" t="n">
+        <v>11</v>
+      </c>
+      <c r="HO50" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34369,6 +34819,15 @@
       <c r="HM51" t="n">
         <v>33</v>
       </c>
+      <c r="HN51" t="n">
+        <v>34</v>
+      </c>
+      <c r="HO51" t="n">
+        <v>40</v>
+      </c>
+      <c r="HP51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35036,6 +35495,15 @@
       <c r="HM52" t="n">
         <v>18</v>
       </c>
+      <c r="HN52" t="n">
+        <v>37</v>
+      </c>
+      <c r="HO52" t="n">
+        <v>37</v>
+      </c>
+      <c r="HP52" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35703,6 +36171,15 @@
       <c r="HM53" t="n">
         <v>44</v>
       </c>
+      <c r="HN53" t="n">
+        <v>42</v>
+      </c>
+      <c r="HO53" t="n">
+        <v>53</v>
+      </c>
+      <c r="HP53" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36370,6 +36847,15 @@
       <c r="HM54" t="n">
         <v>2</v>
       </c>
+      <c r="HN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37037,6 +37523,15 @@
       <c r="HM55" t="n">
         <v>8</v>
       </c>
+      <c r="HN55" t="n">
+        <v>8</v>
+      </c>
+      <c r="HO55" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37704,6 +38199,15 @@
       <c r="HM56" t="n">
         <v>61.5</v>
       </c>
+      <c r="HN56" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="HO56" t="n">
+        <v>80</v>
+      </c>
+      <c r="HP56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38371,6 +38875,15 @@
       <c r="HM57" t="n">
         <v>161</v>
       </c>
+      <c r="HN57" t="n">
+        <v>149</v>
+      </c>
+      <c r="HO57" t="n">
+        <v>182</v>
+      </c>
+      <c r="HP57" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39038,6 +39551,15 @@
       <c r="HM58" t="n">
         <v>89</v>
       </c>
+      <c r="HN58" t="n">
+        <v>84</v>
+      </c>
+      <c r="HO58" t="n">
+        <v>142</v>
+      </c>
+      <c r="HP58" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39705,6 +40227,15 @@
       <c r="HM59" t="n">
         <v>250</v>
       </c>
+      <c r="HN59" t="n">
+        <v>233</v>
+      </c>
+      <c r="HO59" t="n">
+        <v>324</v>
+      </c>
+      <c r="HP59" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40372,6 +40903,15 @@
       <c r="HM60" t="n">
         <v>1.81</v>
       </c>
+      <c r="HN60" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="HO60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="HP60" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41039,6 +41579,15 @@
       <c r="HM61" t="n">
         <v>65</v>
       </c>
+      <c r="HN61" t="n">
+        <v>45</v>
+      </c>
+      <c r="HO61" t="n">
+        <v>58</v>
+      </c>
+      <c r="HP61" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41706,6 +42255,15 @@
       <c r="HM62" t="n">
         <v>68</v>
       </c>
+      <c r="HN62" t="n">
+        <v>62</v>
+      </c>
+      <c r="HO62" t="n">
+        <v>67</v>
+      </c>
+      <c r="HP62" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42373,6 +42931,15 @@
       <c r="HM63" t="n">
         <v>33</v>
       </c>
+      <c r="HN63" t="n">
+        <v>36</v>
+      </c>
+      <c r="HO63" t="n">
+        <v>46</v>
+      </c>
+      <c r="HP63" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43040,6 +43607,15 @@
       <c r="HM64" t="n">
         <v>22</v>
       </c>
+      <c r="HN64" t="n">
+        <v>25</v>
+      </c>
+      <c r="HO64" t="n">
+        <v>22</v>
+      </c>
+      <c r="HP64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43707,6 +44283,15 @@
       <c r="HM65" t="n">
         <v>11</v>
       </c>
+      <c r="HN65" t="n">
+        <v>20</v>
+      </c>
+      <c r="HO65" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44374,6 +44959,15 @@
       <c r="HM66" t="n">
         <v>8</v>
       </c>
+      <c r="HN66" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO66" t="n">
+        <v>8</v>
+      </c>
+      <c r="HP66" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45041,6 +45635,15 @@
       <c r="HM67" t="n">
         <v>4</v>
       </c>
+      <c r="HN67" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO67" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45708,6 +46311,15 @@
       <c r="HM68" t="n">
         <v>3</v>
       </c>
+      <c r="HN68" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO68" t="n">
+        <v>6</v>
+      </c>
+      <c r="HP68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46375,6 +46987,15 @@
       <c r="HM69" t="n">
         <v>1</v>
       </c>
+      <c r="HN69" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO69" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47042,6 +47663,15 @@
       <c r="HM70" t="n">
         <v>12</v>
       </c>
+      <c r="HN70" t="n">
+        <v>16</v>
+      </c>
+      <c r="HO70" t="n">
+        <v>17</v>
+      </c>
+      <c r="HP70" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47709,6 +48339,15 @@
       <c r="HM71" t="n">
         <v>66.7</v>
       </c>
+      <c r="HN71" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="HO71" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="HP71" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48376,6 +49015,15 @@
       <c r="HM72" t="n">
         <v>31.25</v>
       </c>
+      <c r="HN72" t="n">
+        <v>38.83</v>
+      </c>
+      <c r="HO72" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="HP72" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49043,6 +49691,15 @@
       <c r="HM73" t="n">
         <v>20.83</v>
       </c>
+      <c r="HN73" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="HO73" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="HP73" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49710,6 +50367,15 @@
       <c r="HM74" t="n">
         <v>28</v>
       </c>
+      <c r="HN74" t="n">
+        <v>28</v>
+      </c>
+      <c r="HO74" t="n">
+        <v>40</v>
+      </c>
+      <c r="HP74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50377,6 +51043,15 @@
       <c r="HM75" t="n">
         <v>53</v>
       </c>
+      <c r="HN75" t="n">
+        <v>42</v>
+      </c>
+      <c r="HO75" t="n">
+        <v>37</v>
+      </c>
+      <c r="HP75" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51044,6 +51719,15 @@
       <c r="HM76" t="n">
         <v>35</v>
       </c>
+      <c r="HN76" t="n">
+        <v>24</v>
+      </c>
+      <c r="HO76" t="n">
+        <v>25</v>
+      </c>
+      <c r="HP76" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51711,6 +52395,15 @@
       <c r="HM77" t="n">
         <v>28</v>
       </c>
+      <c r="HN77" t="n">
+        <v>42</v>
+      </c>
+      <c r="HO77" t="n">
+        <v>46</v>
+      </c>
+      <c r="HP77" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52378,6 +53071,15 @@
       <c r="HM78" t="n">
         <v>2.33</v>
       </c>
+      <c r="HN78" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="HO78" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="HP78" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53045,6 +53747,15 @@
       <c r="HM79" t="n">
         <v>3.5</v>
       </c>
+      <c r="HN79" t="n">
+        <v>7</v>
+      </c>
+      <c r="HO79" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="HP79" t="n">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53712,6 +54423,15 @@
       <c r="HM80" t="n">
         <v>39.3</v>
       </c>
+      <c r="HN80" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="HO80" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="HP80" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54379,6 +55099,15 @@
       <c r="HM81" t="n">
         <v>28.6</v>
       </c>
+      <c r="HN81" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="HO81" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="HP81" t="n">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55046,6 +55775,15 @@
       <c r="HM82" t="n">
         <v>186.9</v>
       </c>
+      <c r="HN82" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HO82" t="n">
+        <v>187</v>
+      </c>
+      <c r="HP82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55713,6 +56451,15 @@
       <c r="HM83" t="n">
         <v>85.3</v>
       </c>
+      <c r="HN83" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="HO83" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="HP83" t="n">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56380,6 +57127,15 @@
       <c r="HM84" t="n">
         <v>24.33</v>
       </c>
+      <c r="HN84" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HO84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HP84" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57047,6 +57803,15 @@
       <c r="HM85" t="n">
         <v>76.2</v>
       </c>
+      <c r="HN85" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="HO85" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="HP85" t="n">
+        <v>74.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57714,6 +58479,15 @@
       <c r="HM86" t="n">
         <v>12</v>
       </c>
+      <c r="HN86" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO86" t="n">
+        <v>8</v>
+      </c>
+      <c r="HP86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58381,6 +59155,15 @@
       <c r="HM87" t="n">
         <v>2</v>
       </c>
+      <c r="HN87" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO87" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59048,6 +59831,15 @@
       <c r="HM88" t="n">
         <v>5</v>
       </c>
+      <c r="HN88" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO88" t="n">
+        <v>6</v>
+      </c>
+      <c r="HP88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59715,6 +60507,15 @@
       <c r="HM89" t="n">
         <v>3</v>
       </c>
+      <c r="HN89" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60382,6 +61183,15 @@
       <c r="HM90" t="n">
         <v>110</v>
       </c>
+      <c r="HN90" t="n">
+        <v>109</v>
+      </c>
+      <c r="HO90" t="n">
+        <v>142</v>
+      </c>
+      <c r="HP90" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61049,6 +61859,15 @@
       <c r="HM91" t="n">
         <v>141</v>
       </c>
+      <c r="HN91" t="n">
+        <v>113</v>
+      </c>
+      <c r="HO91" t="n">
+        <v>175</v>
+      </c>
+      <c r="HP91" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61716,6 +62535,15 @@
       <c r="HM92" t="n">
         <v>163</v>
       </c>
+      <c r="HN92" t="n">
+        <v>147</v>
+      </c>
+      <c r="HO92" t="n">
+        <v>217</v>
+      </c>
+      <c r="HP92" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62383,6 +63211,15 @@
       <c r="HM93" t="n">
         <v>65.2</v>
       </c>
+      <c r="HN93" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="HO93" t="n">
+        <v>67</v>
+      </c>
+      <c r="HP93" t="n">
+        <v>58.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63050,6 +63887,15 @@
       <c r="HM94" t="n">
         <v>53</v>
       </c>
+      <c r="HN94" t="n">
+        <v>42</v>
+      </c>
+      <c r="HO94" t="n">
+        <v>37</v>
+      </c>
+      <c r="HP94" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63717,6 +64563,15 @@
       <c r="HM95" t="n">
         <v>9</v>
       </c>
+      <c r="HN95" t="n">
+        <v>8</v>
+      </c>
+      <c r="HO95" t="n">
+        <v>8</v>
+      </c>
+      <c r="HP95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64384,6 +65239,15 @@
       <c r="HM96" t="n">
         <v>4</v>
       </c>
+      <c r="HN96" t="n">
+        <v>10</v>
+      </c>
+      <c r="HO96" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65051,6 +65915,15 @@
       <c r="HM97" t="n">
         <v>28</v>
       </c>
+      <c r="HN97" t="n">
+        <v>28</v>
+      </c>
+      <c r="HO97" t="n">
+        <v>40</v>
+      </c>
+      <c r="HP97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65718,6 +66591,15 @@
       <c r="HM98" t="n">
         <v>35</v>
       </c>
+      <c r="HN98" t="n">
+        <v>24</v>
+      </c>
+      <c r="HO98" t="n">
+        <v>25</v>
+      </c>
+      <c r="HP98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66385,6 +67267,15 @@
       <c r="HM99" t="n">
         <v>26</v>
       </c>
+      <c r="HN99" t="n">
+        <v>39</v>
+      </c>
+      <c r="HO99" t="n">
+        <v>45</v>
+      </c>
+      <c r="HP99" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67052,6 +67943,15 @@
       <c r="HM100" t="n">
         <v>2</v>
       </c>
+      <c r="HN100" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO100" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67719,6 +68619,15 @@
       <c r="HM101" t="n">
         <v>4</v>
       </c>
+      <c r="HN101" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO101" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68386,6 +69295,15 @@
       <c r="HM102" t="n">
         <v>50</v>
       </c>
+      <c r="HN102" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="HO102" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="HP102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Geelong_stats.xlsx
+++ b/Geelong_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HP102"/>
+  <dimension ref="A1:HQ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,6 +1028,9 @@
       <c r="HP1" t="n">
         <v>10235</v>
       </c>
+      <c r="HQ1" t="n">
+        <v>10242</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1704,6 +1707,9 @@
       <c r="HP2" t="n">
         <v>2020</v>
       </c>
+      <c r="HQ2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2380,6 +2386,9 @@
       <c r="HP3" t="n">
         <v>8</v>
       </c>
+      <c r="HQ3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3056,6 +3065,9 @@
       <c r="HP4" t="n">
         <v>1</v>
       </c>
+      <c r="HQ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3732,6 +3744,9 @@
       <c r="HP5" t="n">
         <v>1</v>
       </c>
+      <c r="HQ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4408,6 +4423,9 @@
       <c r="HP6" t="n">
         <v>48</v>
       </c>
+      <c r="HQ6" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5084,6 +5102,9 @@
       <c r="HP7" t="n">
         <v>16</v>
       </c>
+      <c r="HQ7" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5760,6 +5781,9 @@
       <c r="HP8" t="n">
         <v>32</v>
       </c>
+      <c r="HQ8" t="n">
+        <v>-9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6436,6 +6460,9 @@
       <c r="HP9" t="n">
         <v>1</v>
       </c>
+      <c r="HQ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7112,6 +7139,9 @@
       <c r="HP10" t="n">
         <v>6</v>
       </c>
+      <c r="HQ10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7788,6 +7818,9 @@
       <c r="HP11" t="n">
         <v>191</v>
       </c>
+      <c r="HQ11" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8464,6 +8497,9 @@
       <c r="HP12" t="n">
         <v>151</v>
       </c>
+      <c r="HQ12" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9140,6 +9176,9 @@
       <c r="HP13" t="n">
         <v>342</v>
       </c>
+      <c r="HQ13" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9816,6 +9855,9 @@
       <c r="HP14" t="n">
         <v>1.26</v>
       </c>
+      <c r="HQ14" t="n">
+        <v>1.86</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10492,6 +10534,9 @@
       <c r="HP15" t="n">
         <v>50</v>
       </c>
+      <c r="HQ15" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11168,6 +11213,9 @@
       <c r="HP16" t="n">
         <v>73</v>
       </c>
+      <c r="HQ16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11844,6 +11892,9 @@
       <c r="HP17" t="n">
         <v>35</v>
       </c>
+      <c r="HQ17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12520,6 +12571,9 @@
       <c r="HP18" t="n">
         <v>17</v>
       </c>
+      <c r="HQ18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13196,6 +13250,9 @@
       <c r="HP19" t="n">
         <v>19</v>
       </c>
+      <c r="HQ19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13872,6 +13929,9 @@
       <c r="HP20" t="n">
         <v>6</v>
       </c>
+      <c r="HQ20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14548,6 +14608,9 @@
       <c r="HP21" t="n">
         <v>4</v>
       </c>
+      <c r="HQ21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15224,6 +15287,9 @@
       <c r="HP22" t="n">
         <v>8</v>
       </c>
+      <c r="HQ22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15900,6 +15966,9 @@
       <c r="HP23" t="n">
         <v>4</v>
       </c>
+      <c r="HQ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16576,6 +16645,9 @@
       <c r="HP24" t="n">
         <v>18</v>
       </c>
+      <c r="HQ24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17252,6 +17324,9 @@
       <c r="HP25" t="n">
         <v>33.3</v>
       </c>
+      <c r="HQ25" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17928,6 +18003,9 @@
       <c r="HP26" t="n">
         <v>57</v>
       </c>
+      <c r="HQ26" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18604,6 +18682,9 @@
       <c r="HP27" t="n">
         <v>19</v>
       </c>
+      <c r="HQ27" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19280,6 +19361,9 @@
       <c r="HP28" t="n">
         <v>41</v>
       </c>
+      <c r="HQ28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19956,6 +20040,9 @@
       <c r="HP29" t="n">
         <v>65</v>
       </c>
+      <c r="HQ29" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20632,6 +20719,9 @@
       <c r="HP30" t="n">
         <v>25</v>
       </c>
+      <c r="HQ30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21308,6 +21398,9 @@
       <c r="HP31" t="n">
         <v>47</v>
       </c>
+      <c r="HQ31" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21984,6 +22077,9 @@
       <c r="HP32" t="n">
         <v>2.61</v>
       </c>
+      <c r="HQ32" t="n">
+        <v>2.79</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22660,6 +22756,9 @@
       <c r="HP33" t="n">
         <v>7.83</v>
       </c>
+      <c r="HQ33" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23336,6 +23435,9 @@
       <c r="HP34" t="n">
         <v>29.8</v>
       </c>
+      <c r="HQ34" t="n">
+        <v>35.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24012,6 +24114,9 @@
       <c r="HP35" t="n">
         <v>12.8</v>
       </c>
+      <c r="HQ35" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24688,6 +24793,9 @@
       <c r="HP36" t="n">
         <v>188.8</v>
       </c>
+      <c r="HQ36" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25364,6 +25472,9 @@
       <c r="HP37" t="n">
         <v>88.5</v>
       </c>
+      <c r="HQ37" t="n">
+        <v>88.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26040,6 +26151,9 @@
       <c r="HP38" t="n">
         <v>26.24</v>
       </c>
+      <c r="HQ38" t="n">
+        <v>26.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26716,6 +26830,9 @@
       <c r="HP39" t="n">
         <v>110.1</v>
       </c>
+      <c r="HQ39" t="n">
+        <v>111.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27392,6 +27509,9 @@
       <c r="HP40" t="n">
         <v>7</v>
       </c>
+      <c r="HQ40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28068,6 +28188,9 @@
       <c r="HP41" t="n">
         <v>6</v>
       </c>
+      <c r="HQ41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28744,6 +28867,9 @@
       <c r="HP42" t="n">
         <v>1</v>
       </c>
+      <c r="HQ42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29420,6 +29546,9 @@
       <c r="HP43" t="n">
         <v>8</v>
       </c>
+      <c r="HQ43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30096,6 +30225,9 @@
       <c r="HP44" t="n">
         <v>166</v>
       </c>
+      <c r="HQ44" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30772,6 +30904,9 @@
       <c r="HP45" t="n">
         <v>168</v>
       </c>
+      <c r="HQ45" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31448,6 +31583,9 @@
       <c r="HP46" t="n">
         <v>201</v>
       </c>
+      <c r="HQ46" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32124,6 +32262,9 @@
       <c r="HP47" t="n">
         <v>58.8</v>
       </c>
+      <c r="HQ47" t="n">
+        <v>74.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32800,6 +32941,9 @@
       <c r="HP48" t="n">
         <v>65</v>
       </c>
+      <c r="HQ48" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33476,6 +33620,9 @@
       <c r="HP49" t="n">
         <v>6</v>
       </c>
+      <c r="HQ49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34152,6 +34299,9 @@
       <c r="HP50" t="n">
         <v>9</v>
       </c>
+      <c r="HQ50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34828,6 +34978,9 @@
       <c r="HP51" t="n">
         <v>41</v>
       </c>
+      <c r="HQ51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35504,6 +35657,9 @@
       <c r="HP52" t="n">
         <v>25</v>
       </c>
+      <c r="HQ52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36180,6 +36336,9 @@
       <c r="HP53" t="n">
         <v>63</v>
       </c>
+      <c r="HQ53" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36856,6 +37015,9 @@
       <c r="HP54" t="n">
         <v>1</v>
       </c>
+      <c r="HQ54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37532,6 +37694,9 @@
       <c r="HP55" t="n">
         <v>4</v>
       </c>
+      <c r="HQ55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38208,6 +38373,9 @@
       <c r="HP56" t="n">
         <v>66.7</v>
       </c>
+      <c r="HQ56" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38884,6 +39052,9 @@
       <c r="HP57" t="n">
         <v>157</v>
       </c>
+      <c r="HQ57" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39560,6 +39731,9 @@
       <c r="HP58" t="n">
         <v>125</v>
       </c>
+      <c r="HQ58" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40236,6 +40410,9 @@
       <c r="HP59" t="n">
         <v>282</v>
       </c>
+      <c r="HQ59" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40912,6 +41089,9 @@
       <c r="HP60" t="n">
         <v>1.26</v>
       </c>
+      <c r="HQ60" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41588,6 +41768,9 @@
       <c r="HP61" t="n">
         <v>41</v>
       </c>
+      <c r="HQ61" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42264,6 +42447,9 @@
       <c r="HP62" t="n">
         <v>73</v>
       </c>
+      <c r="HQ62" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42940,6 +43126,9 @@
       <c r="HP63" t="n">
         <v>43</v>
       </c>
+      <c r="HQ63" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43616,6 +43805,9 @@
       <c r="HP64" t="n">
         <v>19</v>
       </c>
+      <c r="HQ64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44292,6 +44484,9 @@
       <c r="HP65" t="n">
         <v>17</v>
       </c>
+      <c r="HQ65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44968,6 +45163,9 @@
       <c r="HP66" t="n">
         <v>2</v>
       </c>
+      <c r="HQ66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45644,6 +45842,9 @@
       <c r="HP67" t="n">
         <v>1</v>
       </c>
+      <c r="HQ67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46320,6 +46521,9 @@
       <c r="HP68" t="n">
         <v>3</v>
       </c>
+      <c r="HQ68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46996,6 +47200,9 @@
       <c r="HP69" t="n">
         <v>1</v>
       </c>
+      <c r="HQ69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47672,6 +47879,9 @@
       <c r="HP70" t="n">
         <v>6</v>
       </c>
+      <c r="HQ70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48348,6 +48558,9 @@
       <c r="HP71" t="n">
         <v>33.3</v>
       </c>
+      <c r="HQ71" t="n">
+        <v>61.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49024,6 +49237,9 @@
       <c r="HP72" t="n">
         <v>141</v>
       </c>
+      <c r="HQ72" t="n">
+        <v>23.45</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49700,6 +49916,9 @@
       <c r="HP73" t="n">
         <v>47</v>
       </c>
+      <c r="HQ73" t="n">
+        <v>14.33</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50376,6 +50595,9 @@
       <c r="HP74" t="n">
         <v>30</v>
       </c>
+      <c r="HQ74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51052,6 +51274,9 @@
       <c r="HP75" t="n">
         <v>47</v>
       </c>
+      <c r="HQ75" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51728,6 +51953,9 @@
       <c r="HP76" t="n">
         <v>39</v>
       </c>
+      <c r="HQ76" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52404,6 +52632,9 @@
       <c r="HP77" t="n">
         <v>27</v>
       </c>
+      <c r="HQ77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53080,6 +53311,9 @@
       <c r="HP78" t="n">
         <v>4.5</v>
       </c>
+      <c r="HQ78" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53756,6 +53990,9 @@
       <c r="HP79" t="n">
         <v>13.5</v>
       </c>
+      <c r="HQ79" t="n">
+        <v>4.09</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54432,6 +54669,9 @@
       <c r="HP80" t="n">
         <v>18.5</v>
       </c>
+      <c r="HQ80" t="n">
+        <v>37.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55108,6 +55348,9 @@
       <c r="HP81" t="n">
         <v>7.4</v>
       </c>
+      <c r="HQ81" t="n">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55784,6 +56027,9 @@
       <c r="HP82" t="n">
         <v>187.3</v>
       </c>
+      <c r="HQ82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56460,6 +56706,9 @@
       <c r="HP83" t="n">
         <v>86.8</v>
       </c>
+      <c r="HQ83" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57136,6 +57385,9 @@
       <c r="HP84" t="n">
         <v>24.74</v>
       </c>
+      <c r="HQ84" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57812,6 +58064,9 @@
       <c r="HP85" t="n">
         <v>74.7</v>
       </c>
+      <c r="HQ85" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58488,6 +58743,9 @@
       <c r="HP86" t="n">
         <v>10</v>
       </c>
+      <c r="HQ86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59164,6 +59422,9 @@
       <c r="HP87" t="n">
         <v>7</v>
       </c>
+      <c r="HQ87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59840,6 +60101,9 @@
       <c r="HP88" t="n">
         <v>3</v>
       </c>
+      <c r="HQ88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60516,6 +60780,9 @@
       <c r="HP89" t="n">
         <v>2</v>
       </c>
+      <c r="HQ89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61192,6 +61459,9 @@
       <c r="HP90" t="n">
         <v>135</v>
       </c>
+      <c r="HQ90" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61868,6 +62138,9 @@
       <c r="HP91" t="n">
         <v>126</v>
       </c>
+      <c r="HQ91" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62544,6 +62817,9 @@
       <c r="HP92" t="n">
         <v>164</v>
       </c>
+      <c r="HQ92" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63220,6 +63496,9 @@
       <c r="HP93" t="n">
         <v>58.2</v>
       </c>
+      <c r="HQ93" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63896,6 +64175,9 @@
       <c r="HP94" t="n">
         <v>47</v>
       </c>
+      <c r="HQ94" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64572,6 +64854,9 @@
       <c r="HP95" t="n">
         <v>5</v>
       </c>
+      <c r="HQ95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65248,6 +65533,9 @@
       <c r="HP96" t="n">
         <v>2</v>
       </c>
+      <c r="HQ96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65924,6 +66212,9 @@
       <c r="HP97" t="n">
         <v>30</v>
       </c>
+      <c r="HQ97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66600,6 +66891,9 @@
       <c r="HP98" t="n">
         <v>39</v>
       </c>
+      <c r="HQ98" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67276,6 +67570,9 @@
       <c r="HP99" t="n">
         <v>54</v>
       </c>
+      <c r="HQ99" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67952,6 +68249,9 @@
       <c r="HP100" t="n">
         <v>2</v>
       </c>
+      <c r="HQ100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68628,6 +68928,9 @@
       <c r="HP101" t="n">
         <v>1</v>
       </c>
+      <c r="HQ101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69304,8 +69607,11 @@
       <c r="HP102" t="n">
         <v>50</v>
       </c>
+      <c r="HQ102" t="n">
+        <v>72.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Geelong_stats.xlsx
+++ b/Geelong_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HQ102"/>
+  <dimension ref="A1:HT102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,6 +1031,15 @@
       <c r="HQ1" t="n">
         <v>10242</v>
       </c>
+      <c r="HR1" t="n">
+        <v>10247</v>
+      </c>
+      <c r="HS1" t="n">
+        <v>10256</v>
+      </c>
+      <c r="HT1" t="n">
+        <v>10261</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1710,6 +1719,15 @@
       <c r="HQ2" t="n">
         <v>2020</v>
       </c>
+      <c r="HR2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2389,6 +2407,15 @@
       <c r="HQ3" t="n">
         <v>9</v>
       </c>
+      <c r="HR3" t="n">
+        <v>10</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>11</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3068,6 +3095,15 @@
       <c r="HQ4" t="n">
         <v>1</v>
       </c>
+      <c r="HR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3747,6 +3783,15 @@
       <c r="HQ5" t="n">
         <v>0</v>
       </c>
+      <c r="HR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4426,6 +4471,15 @@
       <c r="HQ6" t="n">
         <v>64</v>
       </c>
+      <c r="HR6" t="n">
+        <v>90</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>93</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5105,6 +5159,15 @@
       <c r="HQ7" t="n">
         <v>73</v>
       </c>
+      <c r="HR7" t="n">
+        <v>57</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>34</v>
+      </c>
+      <c r="HT7" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5784,6 +5847,15 @@
       <c r="HQ8" t="n">
         <v>-9</v>
       </c>
+      <c r="HR8" t="n">
+        <v>33</v>
+      </c>
+      <c r="HS8" t="n">
+        <v>59</v>
+      </c>
+      <c r="HT8" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6463,6 +6535,15 @@
       <c r="HQ9" t="n">
         <v>0</v>
       </c>
+      <c r="HR9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7142,6 +7223,15 @@
       <c r="HQ10" t="n">
         <v>17</v>
       </c>
+      <c r="HR10" t="n">
+        <v>12</v>
+      </c>
+      <c r="HS10" t="n">
+        <v>15</v>
+      </c>
+      <c r="HT10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7821,6 +7911,15 @@
       <c r="HQ11" t="n">
         <v>182</v>
       </c>
+      <c r="HR11" t="n">
+        <v>187</v>
+      </c>
+      <c r="HS11" t="n">
+        <v>197</v>
+      </c>
+      <c r="HT11" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8500,6 +8599,15 @@
       <c r="HQ12" t="n">
         <v>98</v>
       </c>
+      <c r="HR12" t="n">
+        <v>136</v>
+      </c>
+      <c r="HS12" t="n">
+        <v>126</v>
+      </c>
+      <c r="HT12" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9179,6 +9287,15 @@
       <c r="HQ13" t="n">
         <v>280</v>
       </c>
+      <c r="HR13" t="n">
+        <v>323</v>
+      </c>
+      <c r="HS13" t="n">
+        <v>323</v>
+      </c>
+      <c r="HT13" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9858,6 +9975,15 @@
       <c r="HQ14" t="n">
         <v>1.86</v>
       </c>
+      <c r="HR14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="HS14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="HT14" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10537,6 +10663,15 @@
       <c r="HQ15" t="n">
         <v>95</v>
       </c>
+      <c r="HR15" t="n">
+        <v>69</v>
+      </c>
+      <c r="HS15" t="n">
+        <v>100</v>
+      </c>
+      <c r="HT15" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11216,6 +11351,15 @@
       <c r="HQ16" t="n">
         <v>46</v>
       </c>
+      <c r="HR16" t="n">
+        <v>39</v>
+      </c>
+      <c r="HS16" t="n">
+        <v>60</v>
+      </c>
+      <c r="HT16" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11895,6 +12039,15 @@
       <c r="HQ17" t="n">
         <v>26</v>
       </c>
+      <c r="HR17" t="n">
+        <v>28</v>
+      </c>
+      <c r="HS17" t="n">
+        <v>30</v>
+      </c>
+      <c r="HT17" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12574,6 +12727,15 @@
       <c r="HQ18" t="n">
         <v>12</v>
       </c>
+      <c r="HR18" t="n">
+        <v>16</v>
+      </c>
+      <c r="HS18" t="n">
+        <v>14</v>
+      </c>
+      <c r="HT18" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13253,6 +13415,15 @@
       <c r="HQ19" t="n">
         <v>15</v>
       </c>
+      <c r="HR19" t="n">
+        <v>18</v>
+      </c>
+      <c r="HS19" t="n">
+        <v>13</v>
+      </c>
+      <c r="HT19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13932,6 +14103,15 @@
       <c r="HQ20" t="n">
         <v>10</v>
       </c>
+      <c r="HR20" t="n">
+        <v>13</v>
+      </c>
+      <c r="HS20" t="n">
+        <v>14</v>
+      </c>
+      <c r="HT20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14611,6 +14791,15 @@
       <c r="HQ21" t="n">
         <v>8</v>
       </c>
+      <c r="HR21" t="n">
+        <v>10</v>
+      </c>
+      <c r="HS21" t="n">
+        <v>9</v>
+      </c>
+      <c r="HT21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15290,6 +15479,15 @@
       <c r="HQ22" t="n">
         <v>4</v>
       </c>
+      <c r="HR22" t="n">
+        <v>10</v>
+      </c>
+      <c r="HS22" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15969,6 +16167,15 @@
       <c r="HQ23" t="n">
         <v>0</v>
       </c>
+      <c r="HR23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16648,6 +16855,15 @@
       <c r="HQ24" t="n">
         <v>14</v>
       </c>
+      <c r="HR24" t="n">
+        <v>25</v>
+      </c>
+      <c r="HS24" t="n">
+        <v>23</v>
+      </c>
+      <c r="HT24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17327,6 +17543,15 @@
       <c r="HQ25" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HR25" t="n">
+        <v>52</v>
+      </c>
+      <c r="HS25" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="HT25" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18006,6 +18231,15 @@
       <c r="HQ26" t="n">
         <v>28</v>
       </c>
+      <c r="HR26" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="HS26" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="HT26" t="n">
+        <v>23.64</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18685,6 +18919,15 @@
       <c r="HQ27" t="n">
         <v>20</v>
       </c>
+      <c r="HR27" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="HS27" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="HT27" t="n">
+        <v>15.76</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19364,6 +19607,15 @@
       <c r="HQ28" t="n">
         <v>32</v>
       </c>
+      <c r="HR28" t="n">
+        <v>40</v>
+      </c>
+      <c r="HS28" t="n">
+        <v>31</v>
+      </c>
+      <c r="HT28" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20043,6 +20295,15 @@
       <c r="HQ29" t="n">
         <v>43</v>
       </c>
+      <c r="HR29" t="n">
+        <v>39</v>
+      </c>
+      <c r="HS29" t="n">
+        <v>32</v>
+      </c>
+      <c r="HT29" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20722,6 +20983,15 @@
       <c r="HQ30" t="n">
         <v>33</v>
       </c>
+      <c r="HR30" t="n">
+        <v>35</v>
+      </c>
+      <c r="HS30" t="n">
+        <v>37</v>
+      </c>
+      <c r="HT30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21401,6 +21671,15 @@
       <c r="HQ31" t="n">
         <v>39</v>
       </c>
+      <c r="HR31" t="n">
+        <v>48</v>
+      </c>
+      <c r="HS31" t="n">
+        <v>40</v>
+      </c>
+      <c r="HT31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22080,6 +22359,15 @@
       <c r="HQ32" t="n">
         <v>2.79</v>
       </c>
+      <c r="HR32" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="HS32" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="HT32" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22759,6 +23047,15 @@
       <c r="HQ33" t="n">
         <v>3.9</v>
       </c>
+      <c r="HR33" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="HS33" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="HT33" t="n">
+        <v>3.36</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23438,6 +23735,15 @@
       <c r="HQ34" t="n">
         <v>35.9</v>
       </c>
+      <c r="HR34" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="HS34" t="n">
+        <v>55</v>
+      </c>
+      <c r="HT34" t="n">
+        <v>42.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24117,6 +24423,15 @@
       <c r="HQ35" t="n">
         <v>25.6</v>
       </c>
+      <c r="HR35" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="HS35" t="n">
+        <v>35</v>
+      </c>
+      <c r="HT35" t="n">
+        <v>29.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24796,6 +25111,15 @@
       <c r="HQ36" t="n">
         <v>188.8</v>
       </c>
+      <c r="HR36" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="HS36" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="HT36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25475,6 +25799,15 @@
       <c r="HQ37" t="n">
         <v>88.5</v>
       </c>
+      <c r="HR37" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="HS37" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="HT37" t="n">
+        <v>89.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26154,6 +26487,15 @@
       <c r="HQ38" t="n">
         <v>26.33</v>
       </c>
+      <c r="HR38" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="HS38" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="HT38" t="n">
+        <v>27.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26833,6 +27175,15 @@
       <c r="HQ39" t="n">
         <v>111.1</v>
       </c>
+      <c r="HR39" t="n">
+        <v>127</v>
+      </c>
+      <c r="HS39" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="HT39" t="n">
+        <v>132.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27512,6 +27863,15 @@
       <c r="HQ40" t="n">
         <v>7</v>
       </c>
+      <c r="HR40" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS40" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28191,6 +28551,15 @@
       <c r="HQ41" t="n">
         <v>6</v>
       </c>
+      <c r="HR41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28870,6 +29239,15 @@
       <c r="HQ42" t="n">
         <v>1</v>
       </c>
+      <c r="HR42" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29549,6 +29927,15 @@
       <c r="HQ43" t="n">
         <v>8</v>
       </c>
+      <c r="HR43" t="n">
+        <v>10</v>
+      </c>
+      <c r="HS43" t="n">
+        <v>10</v>
+      </c>
+      <c r="HT43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30228,6 +30615,15 @@
       <c r="HQ44" t="n">
         <v>108</v>
       </c>
+      <c r="HR44" t="n">
+        <v>119</v>
+      </c>
+      <c r="HS44" t="n">
+        <v>110</v>
+      </c>
+      <c r="HT44" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30907,6 +31303,15 @@
       <c r="HQ45" t="n">
         <v>172</v>
       </c>
+      <c r="HR45" t="n">
+        <v>190</v>
+      </c>
+      <c r="HS45" t="n">
+        <v>205</v>
+      </c>
+      <c r="HT45" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31586,6 +31991,15 @@
       <c r="HQ46" t="n">
         <v>208</v>
       </c>
+      <c r="HR46" t="n">
+        <v>227</v>
+      </c>
+      <c r="HS46" t="n">
+        <v>249</v>
+      </c>
+      <c r="HT46" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32265,6 +32679,15 @@
       <c r="HQ47" t="n">
         <v>74.3</v>
       </c>
+      <c r="HR47" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="HS47" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="HT47" t="n">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32944,6 +33367,15 @@
       <c r="HQ48" t="n">
         <v>43</v>
       </c>
+      <c r="HR48" t="n">
+        <v>39</v>
+      </c>
+      <c r="HS48" t="n">
+        <v>32</v>
+      </c>
+      <c r="HT48" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33623,6 +34055,15 @@
       <c r="HQ49" t="n">
         <v>12</v>
       </c>
+      <c r="HR49" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS49" t="n">
+        <v>14</v>
+      </c>
+      <c r="HT49" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34302,6 +34743,15 @@
       <c r="HQ50" t="n">
         <v>9</v>
       </c>
+      <c r="HR50" t="n">
+        <v>14</v>
+      </c>
+      <c r="HS50" t="n">
+        <v>14</v>
+      </c>
+      <c r="HT50" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34981,6 +35431,15 @@
       <c r="HQ51" t="n">
         <v>32</v>
       </c>
+      <c r="HR51" t="n">
+        <v>40</v>
+      </c>
+      <c r="HS51" t="n">
+        <v>31</v>
+      </c>
+      <c r="HT51" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35660,6 +36119,15 @@
       <c r="HQ52" t="n">
         <v>33</v>
       </c>
+      <c r="HR52" t="n">
+        <v>35</v>
+      </c>
+      <c r="HS52" t="n">
+        <v>37</v>
+      </c>
+      <c r="HT52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36339,6 +36807,15 @@
       <c r="HQ53" t="n">
         <v>37</v>
       </c>
+      <c r="HR53" t="n">
+        <v>34</v>
+      </c>
+      <c r="HS53" t="n">
+        <v>38</v>
+      </c>
+      <c r="HT53" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37018,6 +37495,15 @@
       <c r="HQ54" t="n">
         <v>0</v>
       </c>
+      <c r="HR54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37697,6 +38183,15 @@
       <c r="HQ55" t="n">
         <v>8</v>
       </c>
+      <c r="HR55" t="n">
+        <v>10</v>
+      </c>
+      <c r="HS55" t="n">
+        <v>9</v>
+      </c>
+      <c r="HT55" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38376,6 +38871,15 @@
       <c r="HQ56" t="n">
         <v>80</v>
       </c>
+      <c r="HR56" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="HS56" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="HT56" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39055,6 +39559,15 @@
       <c r="HQ57" t="n">
         <v>166</v>
       </c>
+      <c r="HR57" t="n">
+        <v>155</v>
+      </c>
+      <c r="HS57" t="n">
+        <v>151</v>
+      </c>
+      <c r="HT57" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39734,6 +40247,15 @@
       <c r="HQ58" t="n">
         <v>92</v>
       </c>
+      <c r="HR58" t="n">
+        <v>126</v>
+      </c>
+      <c r="HS58" t="n">
+        <v>116</v>
+      </c>
+      <c r="HT58" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40413,6 +40935,15 @@
       <c r="HQ59" t="n">
         <v>258</v>
       </c>
+      <c r="HR59" t="n">
+        <v>281</v>
+      </c>
+      <c r="HS59" t="n">
+        <v>267</v>
+      </c>
+      <c r="HT59" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41092,6 +41623,15 @@
       <c r="HQ60" t="n">
         <v>1.8</v>
       </c>
+      <c r="HR60" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="HS60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="HT60" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41771,6 +42311,15 @@
       <c r="HQ61" t="n">
         <v>57</v>
       </c>
+      <c r="HR61" t="n">
+        <v>46</v>
+      </c>
+      <c r="HS61" t="n">
+        <v>51</v>
+      </c>
+      <c r="HT61" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42450,6 +42999,15 @@
       <c r="HQ62" t="n">
         <v>46</v>
       </c>
+      <c r="HR62" t="n">
+        <v>51</v>
+      </c>
+      <c r="HS62" t="n">
+        <v>37</v>
+      </c>
+      <c r="HT62" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43129,6 +43687,15 @@
       <c r="HQ63" t="n">
         <v>39</v>
       </c>
+      <c r="HR63" t="n">
+        <v>24</v>
+      </c>
+      <c r="HS63" t="n">
+        <v>28</v>
+      </c>
+      <c r="HT63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43808,6 +44375,15 @@
       <c r="HQ64" t="n">
         <v>15</v>
       </c>
+      <c r="HR64" t="n">
+        <v>18</v>
+      </c>
+      <c r="HS64" t="n">
+        <v>13</v>
+      </c>
+      <c r="HT64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44487,6 +45063,15 @@
       <c r="HQ65" t="n">
         <v>12</v>
       </c>
+      <c r="HR65" t="n">
+        <v>16</v>
+      </c>
+      <c r="HS65" t="n">
+        <v>14</v>
+      </c>
+      <c r="HT65" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45166,6 +45751,15 @@
       <c r="HQ66" t="n">
         <v>11</v>
       </c>
+      <c r="HR66" t="n">
+        <v>9</v>
+      </c>
+      <c r="HS66" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45845,6 +46439,15 @@
       <c r="HQ67" t="n">
         <v>8</v>
       </c>
+      <c r="HR67" t="n">
+        <v>8</v>
+      </c>
+      <c r="HS67" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46524,6 +47127,15 @@
       <c r="HQ68" t="n">
         <v>6</v>
       </c>
+      <c r="HR68" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS68" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47203,6 +47815,15 @@
       <c r="HQ69" t="n">
         <v>1</v>
       </c>
+      <c r="HR69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS69" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47882,6 +48503,15 @@
       <c r="HQ70" t="n">
         <v>18</v>
       </c>
+      <c r="HR70" t="n">
+        <v>12</v>
+      </c>
+      <c r="HS70" t="n">
+        <v>14</v>
+      </c>
+      <c r="HT70" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48561,6 +49191,15 @@
       <c r="HQ71" t="n">
         <v>61.1</v>
       </c>
+      <c r="HR71" t="n">
+        <v>75</v>
+      </c>
+      <c r="HS71" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="HT71" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49240,6 +49879,15 @@
       <c r="HQ72" t="n">
         <v>23.45</v>
       </c>
+      <c r="HR72" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="HS72" t="n">
+        <v>66.75</v>
+      </c>
+      <c r="HT72" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49919,6 +50567,15 @@
       <c r="HQ73" t="n">
         <v>14.33</v>
       </c>
+      <c r="HR73" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="HS73" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="HT73" t="n">
+        <v>22.91</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50598,6 +51255,15 @@
       <c r="HQ74" t="n">
         <v>35</v>
       </c>
+      <c r="HR74" t="n">
+        <v>30</v>
+      </c>
+      <c r="HS74" t="n">
+        <v>31</v>
+      </c>
+      <c r="HT74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51277,6 +51943,15 @@
       <c r="HQ75" t="n">
         <v>39</v>
       </c>
+      <c r="HR75" t="n">
+        <v>43</v>
+      </c>
+      <c r="HS75" t="n">
+        <v>36</v>
+      </c>
+      <c r="HT75" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51956,6 +52631,15 @@
       <c r="HQ76" t="n">
         <v>29</v>
       </c>
+      <c r="HR76" t="n">
+        <v>33</v>
+      </c>
+      <c r="HS76" t="n">
+        <v>25</v>
+      </c>
+      <c r="HT76" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52635,6 +53319,15 @@
       <c r="HQ77" t="n">
         <v>45</v>
       </c>
+      <c r="HR77" t="n">
+        <v>45</v>
+      </c>
+      <c r="HS77" t="n">
+        <v>43</v>
+      </c>
+      <c r="HT77" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53314,6 +54007,15 @@
       <c r="HQ78" t="n">
         <v>2.5</v>
       </c>
+      <c r="HR78" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="HS78" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="HT78" t="n">
+        <v>3.36</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53993,6 +54695,15 @@
       <c r="HQ79" t="n">
         <v>4.09</v>
       </c>
+      <c r="HR79" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS79" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="HT79" t="n">
+        <v>9.25</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54672,6 +55383,15 @@
       <c r="HQ80" t="n">
         <v>37.8</v>
       </c>
+      <c r="HR80" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="HS80" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="HT80" t="n">
+        <v>24.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55351,6 +56071,15 @@
       <c r="HQ81" t="n">
         <v>24.4</v>
       </c>
+      <c r="HR81" t="n">
+        <v>20</v>
+      </c>
+      <c r="HS81" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="HT81" t="n">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56030,6 +56759,15 @@
       <c r="HQ82" t="n">
         <v>188</v>
       </c>
+      <c r="HR82" t="n">
+        <v>189</v>
+      </c>
+      <c r="HS82" t="n">
+        <v>188</v>
+      </c>
+      <c r="HT82" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56709,6 +57447,15 @@
       <c r="HQ83" t="n">
         <v>87.5</v>
       </c>
+      <c r="HR83" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="HS83" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="HT83" t="n">
+        <v>83.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57388,6 +58135,15 @@
       <c r="HQ84" t="n">
         <v>25.91</v>
       </c>
+      <c r="HR84" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HS84" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="HT84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58067,6 +58823,15 @@
       <c r="HQ85" t="n">
         <v>112</v>
       </c>
+      <c r="HR85" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="HS85" t="n">
+        <v>67</v>
+      </c>
+      <c r="HT85" t="n">
+        <v>106.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58746,6 +59511,15 @@
       <c r="HQ86" t="n">
         <v>8</v>
       </c>
+      <c r="HR86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS86" t="n">
+        <v>11</v>
+      </c>
+      <c r="HT86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59425,6 +60199,15 @@
       <c r="HQ87" t="n">
         <v>4</v>
       </c>
+      <c r="HR87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS87" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60104,6 +60887,15 @@
       <c r="HQ88" t="n">
         <v>1</v>
       </c>
+      <c r="HR88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS88" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60783,6 +61575,15 @@
       <c r="HQ89" t="n">
         <v>9</v>
       </c>
+      <c r="HR89" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61462,6 +62263,15 @@
       <c r="HQ90" t="n">
         <v>113</v>
       </c>
+      <c r="HR90" t="n">
+        <v>100</v>
+      </c>
+      <c r="HS90" t="n">
+        <v>119</v>
+      </c>
+      <c r="HT90" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62141,6 +62951,15 @@
       <c r="HQ91" t="n">
         <v>144</v>
       </c>
+      <c r="HR91" t="n">
+        <v>168</v>
+      </c>
+      <c r="HS91" t="n">
+        <v>152</v>
+      </c>
+      <c r="HT91" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62820,6 +63639,15 @@
       <c r="HQ92" t="n">
         <v>178</v>
       </c>
+      <c r="HR92" t="n">
+        <v>209</v>
+      </c>
+      <c r="HS92" t="n">
+        <v>173</v>
+      </c>
+      <c r="HT92" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63499,6 +64327,15 @@
       <c r="HQ93" t="n">
         <v>69</v>
       </c>
+      <c r="HR93" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="HS93" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="HT93" t="n">
+        <v>68.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64178,6 +65015,15 @@
       <c r="HQ94" t="n">
         <v>39</v>
       </c>
+      <c r="HR94" t="n">
+        <v>43</v>
+      </c>
+      <c r="HS94" t="n">
+        <v>36</v>
+      </c>
+      <c r="HT94" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64857,6 +65703,15 @@
       <c r="HQ95" t="n">
         <v>10</v>
       </c>
+      <c r="HR95" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS95" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT95" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65536,6 +66391,15 @@
       <c r="HQ96" t="n">
         <v>10</v>
       </c>
+      <c r="HR96" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS96" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66215,6 +67079,15 @@
       <c r="HQ97" t="n">
         <v>35</v>
       </c>
+      <c r="HR97" t="n">
+        <v>30</v>
+      </c>
+      <c r="HS97" t="n">
+        <v>31</v>
+      </c>
+      <c r="HT97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66894,6 +67767,15 @@
       <c r="HQ98" t="n">
         <v>29</v>
       </c>
+      <c r="HR98" t="n">
+        <v>33</v>
+      </c>
+      <c r="HS98" t="n">
+        <v>25</v>
+      </c>
+      <c r="HT98" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67573,6 +68455,15 @@
       <c r="HQ99" t="n">
         <v>48</v>
       </c>
+      <c r="HR99" t="n">
+        <v>41</v>
+      </c>
+      <c r="HS99" t="n">
+        <v>47</v>
+      </c>
+      <c r="HT99" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68252,6 +69143,15 @@
       <c r="HQ100" t="n">
         <v>5</v>
       </c>
+      <c r="HR100" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS100" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68931,6 +69831,15 @@
       <c r="HQ101" t="n">
         <v>8</v>
       </c>
+      <c r="HR101" t="n">
+        <v>8</v>
+      </c>
+      <c r="HS101" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69610,8 +70519,17 @@
       <c r="HQ102" t="n">
         <v>72.7</v>
       </c>
+      <c r="HR102" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="HS102" t="n">
+        <v>75</v>
+      </c>
+      <c r="HT102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Geelong_stats.xlsx
+++ b/Geelong_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HT102"/>
+  <dimension ref="A1:IA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,6 +1040,27 @@
       <c r="HT1" t="n">
         <v>10261</v>
       </c>
+      <c r="HU1" t="n">
+        <v>10274</v>
+      </c>
+      <c r="HV1" t="n">
+        <v>10280</v>
+      </c>
+      <c r="HW1" t="n">
+        <v>10294</v>
+      </c>
+      <c r="HX1" t="n">
+        <v>10301</v>
+      </c>
+      <c r="HY1" t="n">
+        <v>10315</v>
+      </c>
+      <c r="HZ1" t="n">
+        <v>10318</v>
+      </c>
+      <c r="IA1" t="n">
+        <v>10323</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1728,6 +1749,27 @@
       <c r="HT2" t="n">
         <v>2020</v>
       </c>
+      <c r="HU2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2416,6 +2458,27 @@
       <c r="HT3" t="n">
         <v>12</v>
       </c>
+      <c r="HU3" t="n">
+        <v>13</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>14</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>16</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>17</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>18</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>25</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3104,6 +3167,27 @@
       <c r="HT4" t="n">
         <v>0</v>
       </c>
+      <c r="HU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3792,6 +3876,27 @@
       <c r="HT5" t="n">
         <v>0</v>
       </c>
+      <c r="HU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4480,6 +4585,27 @@
       <c r="HT6" t="n">
         <v>91</v>
       </c>
+      <c r="HU6" t="n">
+        <v>65</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>72</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>108</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>31</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>69</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>42</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5168,6 +5294,27 @@
       <c r="HT7" t="n">
         <v>31</v>
       </c>
+      <c r="HU7" t="n">
+        <v>37</v>
+      </c>
+      <c r="HV7" t="n">
+        <v>61</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>42</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>57</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>63</v>
+      </c>
+      <c r="HZ7" t="n">
+        <v>58</v>
+      </c>
+      <c r="IA7" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5856,6 +6003,27 @@
       <c r="HT8" t="n">
         <v>60</v>
       </c>
+      <c r="HU8" t="n">
+        <v>28</v>
+      </c>
+      <c r="HV8" t="n">
+        <v>11</v>
+      </c>
+      <c r="HW8" t="n">
+        <v>66</v>
+      </c>
+      <c r="HX8" t="n">
+        <v>-26</v>
+      </c>
+      <c r="HY8" t="n">
+        <v>6</v>
+      </c>
+      <c r="HZ8" t="n">
+        <v>-16</v>
+      </c>
+      <c r="IA8" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6544,6 +6712,27 @@
       <c r="HT9" t="n">
         <v>1</v>
       </c>
+      <c r="HU9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7232,6 +7421,27 @@
       <c r="HT10" t="n">
         <v>13</v>
       </c>
+      <c r="HU10" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV10" t="n">
+        <v>18</v>
+      </c>
+      <c r="HW10" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX10" t="n">
+        <v>14</v>
+      </c>
+      <c r="HY10" t="n">
+        <v>16</v>
+      </c>
+      <c r="HZ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="IA10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7920,6 +8130,27 @@
       <c r="HT11" t="n">
         <v>210</v>
       </c>
+      <c r="HU11" t="n">
+        <v>185</v>
+      </c>
+      <c r="HV11" t="n">
+        <v>183</v>
+      </c>
+      <c r="HW11" t="n">
+        <v>194</v>
+      </c>
+      <c r="HX11" t="n">
+        <v>207</v>
+      </c>
+      <c r="HY11" t="n">
+        <v>189</v>
+      </c>
+      <c r="HZ11" t="n">
+        <v>173</v>
+      </c>
+      <c r="IA11" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8608,6 +8839,27 @@
       <c r="HT12" t="n">
         <v>121</v>
       </c>
+      <c r="HU12" t="n">
+        <v>156</v>
+      </c>
+      <c r="HV12" t="n">
+        <v>140</v>
+      </c>
+      <c r="HW12" t="n">
+        <v>129</v>
+      </c>
+      <c r="HX12" t="n">
+        <v>98</v>
+      </c>
+      <c r="HY12" t="n">
+        <v>95</v>
+      </c>
+      <c r="HZ12" t="n">
+        <v>115</v>
+      </c>
+      <c r="IA12" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9296,6 +9548,27 @@
       <c r="HT13" t="n">
         <v>331</v>
       </c>
+      <c r="HU13" t="n">
+        <v>341</v>
+      </c>
+      <c r="HV13" t="n">
+        <v>323</v>
+      </c>
+      <c r="HW13" t="n">
+        <v>323</v>
+      </c>
+      <c r="HX13" t="n">
+        <v>305</v>
+      </c>
+      <c r="HY13" t="n">
+        <v>284</v>
+      </c>
+      <c r="HZ13" t="n">
+        <v>288</v>
+      </c>
+      <c r="IA13" t="n">
+        <v>358</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9984,6 +10257,27 @@
       <c r="HT14" t="n">
         <v>1.74</v>
       </c>
+      <c r="HU14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="HV14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="HW14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="HX14" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="HY14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="HZ14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="IA14" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10672,6 +10966,27 @@
       <c r="HT15" t="n">
         <v>108</v>
       </c>
+      <c r="HU15" t="n">
+        <v>81</v>
+      </c>
+      <c r="HV15" t="n">
+        <v>77</v>
+      </c>
+      <c r="HW15" t="n">
+        <v>102</v>
+      </c>
+      <c r="HX15" t="n">
+        <v>111</v>
+      </c>
+      <c r="HY15" t="n">
+        <v>88</v>
+      </c>
+      <c r="HZ15" t="n">
+        <v>73</v>
+      </c>
+      <c r="IA15" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11360,6 +11675,27 @@
       <c r="HT16" t="n">
         <v>49</v>
       </c>
+      <c r="HU16" t="n">
+        <v>77</v>
+      </c>
+      <c r="HV16" t="n">
+        <v>49</v>
+      </c>
+      <c r="HW16" t="n">
+        <v>51</v>
+      </c>
+      <c r="HX16" t="n">
+        <v>43</v>
+      </c>
+      <c r="HY16" t="n">
+        <v>42</v>
+      </c>
+      <c r="HZ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="IA16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12048,6 +12384,27 @@
       <c r="HT17" t="n">
         <v>20</v>
       </c>
+      <c r="HU17" t="n">
+        <v>36</v>
+      </c>
+      <c r="HV17" t="n">
+        <v>49</v>
+      </c>
+      <c r="HW17" t="n">
+        <v>23</v>
+      </c>
+      <c r="HX17" t="n">
+        <v>20</v>
+      </c>
+      <c r="HY17" t="n">
+        <v>25</v>
+      </c>
+      <c r="HZ17" t="n">
+        <v>36</v>
+      </c>
+      <c r="IA17" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12736,6 +13093,27 @@
       <c r="HT18" t="n">
         <v>13</v>
       </c>
+      <c r="HU18" t="n">
+        <v>10</v>
+      </c>
+      <c r="HV18" t="n">
+        <v>16</v>
+      </c>
+      <c r="HW18" t="n">
+        <v>15</v>
+      </c>
+      <c r="HX18" t="n">
+        <v>17</v>
+      </c>
+      <c r="HY18" t="n">
+        <v>17</v>
+      </c>
+      <c r="HZ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="IA18" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13424,6 +13802,27 @@
       <c r="HT19" t="n">
         <v>18</v>
       </c>
+      <c r="HU19" t="n">
+        <v>18</v>
+      </c>
+      <c r="HV19" t="n">
+        <v>13</v>
+      </c>
+      <c r="HW19" t="n">
+        <v>11</v>
+      </c>
+      <c r="HX19" t="n">
+        <v>11</v>
+      </c>
+      <c r="HY19" t="n">
+        <v>19</v>
+      </c>
+      <c r="HZ19" t="n">
+        <v>16</v>
+      </c>
+      <c r="IA19" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14112,6 +14511,27 @@
       <c r="HT20" t="n">
         <v>14</v>
       </c>
+      <c r="HU20" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV20" t="n">
+        <v>10</v>
+      </c>
+      <c r="HW20" t="n">
+        <v>17</v>
+      </c>
+      <c r="HX20" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY20" t="n">
+        <v>10</v>
+      </c>
+      <c r="HZ20" t="n">
+        <v>5</v>
+      </c>
+      <c r="IA20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14800,6 +15220,27 @@
       <c r="HT21" t="n">
         <v>12</v>
       </c>
+      <c r="HU21" t="n">
+        <v>7</v>
+      </c>
+      <c r="HV21" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW21" t="n">
+        <v>13</v>
+      </c>
+      <c r="HX21" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY21" t="n">
+        <v>7</v>
+      </c>
+      <c r="HZ21" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15488,6 +15929,27 @@
       <c r="HT22" t="n">
         <v>6</v>
       </c>
+      <c r="HU22" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV22" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW22" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX22" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY22" t="n">
+        <v>9</v>
+      </c>
+      <c r="HZ22" t="n">
+        <v>10</v>
+      </c>
+      <c r="IA22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16176,6 +16638,27 @@
       <c r="HT23" t="n">
         <v>1</v>
       </c>
+      <c r="HU23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV23" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="IA23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16864,6 +17347,27 @@
       <c r="HT24" t="n">
         <v>21</v>
       </c>
+      <c r="HU24" t="n">
+        <v>20</v>
+      </c>
+      <c r="HV24" t="n">
+        <v>22</v>
+      </c>
+      <c r="HW24" t="n">
+        <v>23</v>
+      </c>
+      <c r="HX24" t="n">
+        <v>11</v>
+      </c>
+      <c r="HY24" t="n">
+        <v>19</v>
+      </c>
+      <c r="HZ24" t="n">
+        <v>17</v>
+      </c>
+      <c r="IA24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17552,6 +18056,27 @@
       <c r="HT25" t="n">
         <v>66.7</v>
       </c>
+      <c r="HU25" t="n">
+        <v>45</v>
+      </c>
+      <c r="HV25" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="HW25" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="HX25" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="HY25" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="HZ25" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="IA25" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18240,6 +18765,27 @@
       <c r="HT26" t="n">
         <v>23.64</v>
       </c>
+      <c r="HU26" t="n">
+        <v>37.89</v>
+      </c>
+      <c r="HV26" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="HW26" t="n">
+        <v>19</v>
+      </c>
+      <c r="HX26" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="HY26" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="HZ26" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="IA26" t="n">
+        <v>23.87</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18928,6 +19474,27 @@
       <c r="HT27" t="n">
         <v>15.76</v>
       </c>
+      <c r="HU27" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="HV27" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="HW27" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="HX27" t="n">
+        <v>27.73</v>
+      </c>
+      <c r="HY27" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="HZ27" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="IA27" t="n">
+        <v>14.32</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19616,6 +20183,27 @@
       <c r="HT28" t="n">
         <v>31</v>
       </c>
+      <c r="HU28" t="n">
+        <v>36</v>
+      </c>
+      <c r="HV28" t="n">
+        <v>36</v>
+      </c>
+      <c r="HW28" t="n">
+        <v>31</v>
+      </c>
+      <c r="HX28" t="n">
+        <v>32</v>
+      </c>
+      <c r="HY28" t="n">
+        <v>28</v>
+      </c>
+      <c r="HZ28" t="n">
+        <v>31</v>
+      </c>
+      <c r="IA28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20304,6 +20892,27 @@
       <c r="HT29" t="n">
         <v>49</v>
       </c>
+      <c r="HU29" t="n">
+        <v>51</v>
+      </c>
+      <c r="HV29" t="n">
+        <v>38</v>
+      </c>
+      <c r="HW29" t="n">
+        <v>36</v>
+      </c>
+      <c r="HX29" t="n">
+        <v>42</v>
+      </c>
+      <c r="HY29" t="n">
+        <v>52</v>
+      </c>
+      <c r="HZ29" t="n">
+        <v>42</v>
+      </c>
+      <c r="IA29" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20992,6 +21601,27 @@
       <c r="HT30" t="n">
         <v>33</v>
       </c>
+      <c r="HU30" t="n">
+        <v>23</v>
+      </c>
+      <c r="HV30" t="n">
+        <v>21</v>
+      </c>
+      <c r="HW30" t="n">
+        <v>25</v>
+      </c>
+      <c r="HX30" t="n">
+        <v>34</v>
+      </c>
+      <c r="HY30" t="n">
+        <v>37</v>
+      </c>
+      <c r="HZ30" t="n">
+        <v>31</v>
+      </c>
+      <c r="IA30" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21680,6 +22310,27 @@
       <c r="HT31" t="n">
         <v>47</v>
       </c>
+      <c r="HU31" t="n">
+        <v>42</v>
+      </c>
+      <c r="HV31" t="n">
+        <v>42</v>
+      </c>
+      <c r="HW31" t="n">
+        <v>45</v>
+      </c>
+      <c r="HX31" t="n">
+        <v>40</v>
+      </c>
+      <c r="HY31" t="n">
+        <v>44</v>
+      </c>
+      <c r="HZ31" t="n">
+        <v>41</v>
+      </c>
+      <c r="IA31" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22368,6 +23019,27 @@
       <c r="HT32" t="n">
         <v>2.24</v>
       </c>
+      <c r="HU32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="HV32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="HW32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="HX32" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="HY32" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="HZ32" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="IA32" t="n">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23056,6 +23728,27 @@
       <c r="HT33" t="n">
         <v>3.36</v>
       </c>
+      <c r="HU33" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="HV33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="HW33" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="HX33" t="n">
+        <v>10</v>
+      </c>
+      <c r="HY33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="HZ33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="IA33" t="n">
+        <v>3.07</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23744,6 +24437,27 @@
       <c r="HT34" t="n">
         <v>42.6</v>
       </c>
+      <c r="HU34" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="HV34" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="HW34" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="HX34" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="HY34" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="HZ34" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="IA34" t="n">
+        <v>47.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24432,6 +25146,27 @@
       <c r="HT35" t="n">
         <v>29.8</v>
       </c>
+      <c r="HU35" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="HV35" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="HW35" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="HX35" t="n">
+        <v>10</v>
+      </c>
+      <c r="HY35" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="HZ35" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="IA35" t="n">
+        <v>32.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25120,6 +25855,27 @@
       <c r="HT36" t="n">
         <v>188.5</v>
       </c>
+      <c r="HU36" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="HV36" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="HW36" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="HX36" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="HY36" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HZ36" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="IA36" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25808,6 +26564,27 @@
       <c r="HT37" t="n">
         <v>89.2</v>
       </c>
+      <c r="HU37" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="HV37" t="n">
+        <v>89</v>
+      </c>
+      <c r="HW37" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="HX37" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="HY37" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="HZ37" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="IA37" t="n">
+        <v>89.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26496,6 +27273,27 @@
       <c r="HT38" t="n">
         <v>27.33</v>
       </c>
+      <c r="HU38" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="HV38" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="HW38" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HX38" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="HY38" t="n">
+        <v>28.24</v>
+      </c>
+      <c r="HZ38" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="IA38" t="n">
+        <v>28.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27184,6 +27982,27 @@
       <c r="HT39" t="n">
         <v>132.8</v>
       </c>
+      <c r="HU39" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="HV39" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="HW39" t="n">
+        <v>121.9</v>
+      </c>
+      <c r="HX39" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="HY39" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="HZ39" t="n">
+        <v>161</v>
+      </c>
+      <c r="IA39" t="n">
+        <v>160.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27872,6 +28691,27 @@
       <c r="HT40" t="n">
         <v>5</v>
       </c>
+      <c r="HU40" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV40" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW40" t="n">
+        <v>6</v>
+      </c>
+      <c r="HX40" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY40" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ40" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28560,6 +29400,27 @@
       <c r="HT41" t="n">
         <v>5</v>
       </c>
+      <c r="HU41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HZ41" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29248,6 +30109,27 @@
       <c r="HT42" t="n">
         <v>3</v>
       </c>
+      <c r="HU42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX42" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HZ42" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29936,6 +30818,27 @@
       <c r="HT43" t="n">
         <v>9</v>
       </c>
+      <c r="HU43" t="n">
+        <v>8</v>
+      </c>
+      <c r="HV43" t="n">
+        <v>10</v>
+      </c>
+      <c r="HW43" t="n">
+        <v>8</v>
+      </c>
+      <c r="HX43" t="n">
+        <v>9</v>
+      </c>
+      <c r="HY43" t="n">
+        <v>12</v>
+      </c>
+      <c r="HZ43" t="n">
+        <v>11</v>
+      </c>
+      <c r="IA43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30624,6 +31527,27 @@
       <c r="HT44" t="n">
         <v>128</v>
       </c>
+      <c r="HU44" t="n">
+        <v>126</v>
+      </c>
+      <c r="HV44" t="n">
+        <v>121</v>
+      </c>
+      <c r="HW44" t="n">
+        <v>120</v>
+      </c>
+      <c r="HX44" t="n">
+        <v>116</v>
+      </c>
+      <c r="HY44" t="n">
+        <v>111</v>
+      </c>
+      <c r="HZ44" t="n">
+        <v>127</v>
+      </c>
+      <c r="IA44" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31312,6 +32236,27 @@
       <c r="HT45" t="n">
         <v>208</v>
       </c>
+      <c r="HU45" t="n">
+        <v>215</v>
+      </c>
+      <c r="HV45" t="n">
+        <v>200</v>
+      </c>
+      <c r="HW45" t="n">
+        <v>202</v>
+      </c>
+      <c r="HX45" t="n">
+        <v>191</v>
+      </c>
+      <c r="HY45" t="n">
+        <v>169</v>
+      </c>
+      <c r="HZ45" t="n">
+        <v>158</v>
+      </c>
+      <c r="IA45" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32000,6 +32945,27 @@
       <c r="HT46" t="n">
         <v>250</v>
       </c>
+      <c r="HU46" t="n">
+        <v>250</v>
+      </c>
+      <c r="HV46" t="n">
+        <v>239</v>
+      </c>
+      <c r="HW46" t="n">
+        <v>245</v>
+      </c>
+      <c r="HX46" t="n">
+        <v>218</v>
+      </c>
+      <c r="HY46" t="n">
+        <v>202</v>
+      </c>
+      <c r="HZ46" t="n">
+        <v>198</v>
+      </c>
+      <c r="IA46" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32688,6 +33654,27 @@
       <c r="HT47" t="n">
         <v>75.5</v>
       </c>
+      <c r="HU47" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="HV47" t="n">
+        <v>74</v>
+      </c>
+      <c r="HW47" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="HX47" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="HY47" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="HZ47" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="IA47" t="n">
+        <v>80.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33376,6 +34363,27 @@
       <c r="HT48" t="n">
         <v>49</v>
       </c>
+      <c r="HU48" t="n">
+        <v>51</v>
+      </c>
+      <c r="HV48" t="n">
+        <v>38</v>
+      </c>
+      <c r="HW48" t="n">
+        <v>36</v>
+      </c>
+      <c r="HX48" t="n">
+        <v>42</v>
+      </c>
+      <c r="HY48" t="n">
+        <v>52</v>
+      </c>
+      <c r="HZ48" t="n">
+        <v>42</v>
+      </c>
+      <c r="IA48" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34064,6 +35072,27 @@
       <c r="HT49" t="n">
         <v>17</v>
       </c>
+      <c r="HU49" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV49" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW49" t="n">
+        <v>15</v>
+      </c>
+      <c r="HX49" t="n">
+        <v>15</v>
+      </c>
+      <c r="HY49" t="n">
+        <v>10</v>
+      </c>
+      <c r="HZ49" t="n">
+        <v>13</v>
+      </c>
+      <c r="IA49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34752,6 +35781,27 @@
       <c r="HT50" t="n">
         <v>18</v>
       </c>
+      <c r="HU50" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV50" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW50" t="n">
+        <v>13</v>
+      </c>
+      <c r="HX50" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY50" t="n">
+        <v>7</v>
+      </c>
+      <c r="HZ50" t="n">
+        <v>10</v>
+      </c>
+      <c r="IA50" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35440,6 +36490,27 @@
       <c r="HT51" t="n">
         <v>31</v>
       </c>
+      <c r="HU51" t="n">
+        <v>36</v>
+      </c>
+      <c r="HV51" t="n">
+        <v>36</v>
+      </c>
+      <c r="HW51" t="n">
+        <v>31</v>
+      </c>
+      <c r="HX51" t="n">
+        <v>32</v>
+      </c>
+      <c r="HY51" t="n">
+        <v>28</v>
+      </c>
+      <c r="HZ51" t="n">
+        <v>31</v>
+      </c>
+      <c r="IA51" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36128,6 +37199,27 @@
       <c r="HT52" t="n">
         <v>33</v>
       </c>
+      <c r="HU52" t="n">
+        <v>23</v>
+      </c>
+      <c r="HV52" t="n">
+        <v>21</v>
+      </c>
+      <c r="HW52" t="n">
+        <v>25</v>
+      </c>
+      <c r="HX52" t="n">
+        <v>34</v>
+      </c>
+      <c r="HY52" t="n">
+        <v>37</v>
+      </c>
+      <c r="HZ52" t="n">
+        <v>31</v>
+      </c>
+      <c r="IA52" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36816,6 +37908,27 @@
       <c r="HT53" t="n">
         <v>53</v>
       </c>
+      <c r="HU53" t="n">
+        <v>43</v>
+      </c>
+      <c r="HV53" t="n">
+        <v>40</v>
+      </c>
+      <c r="HW53" t="n">
+        <v>33</v>
+      </c>
+      <c r="HX53" t="n">
+        <v>36</v>
+      </c>
+      <c r="HY53" t="n">
+        <v>50</v>
+      </c>
+      <c r="HZ53" t="n">
+        <v>43</v>
+      </c>
+      <c r="IA53" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37504,6 +38617,27 @@
       <c r="HT54" t="n">
         <v>2</v>
       </c>
+      <c r="HU54" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV54" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW54" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX54" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ54" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38192,6 +39326,27 @@
       <c r="HT55" t="n">
         <v>12</v>
       </c>
+      <c r="HU55" t="n">
+        <v>7</v>
+      </c>
+      <c r="HV55" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW55" t="n">
+        <v>13</v>
+      </c>
+      <c r="HX55" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY55" t="n">
+        <v>7</v>
+      </c>
+      <c r="HZ55" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA55" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38880,6 +40035,27 @@
       <c r="HT56" t="n">
         <v>85.7</v>
       </c>
+      <c r="HU56" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="HV56" t="n">
+        <v>70</v>
+      </c>
+      <c r="HW56" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="HX56" t="n">
+        <v>100</v>
+      </c>
+      <c r="HY56" t="n">
+        <v>70</v>
+      </c>
+      <c r="HZ56" t="n">
+        <v>80</v>
+      </c>
+      <c r="IA56" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39568,6 +40744,27 @@
       <c r="HT57" t="n">
         <v>157</v>
       </c>
+      <c r="HU57" t="n">
+        <v>135</v>
+      </c>
+      <c r="HV57" t="n">
+        <v>146</v>
+      </c>
+      <c r="HW57" t="n">
+        <v>141</v>
+      </c>
+      <c r="HX57" t="n">
+        <v>166</v>
+      </c>
+      <c r="HY57" t="n">
+        <v>189</v>
+      </c>
+      <c r="HZ57" t="n">
+        <v>165</v>
+      </c>
+      <c r="IA57" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40256,6 +41453,27 @@
       <c r="HT58" t="n">
         <v>95</v>
       </c>
+      <c r="HU58" t="n">
+        <v>115</v>
+      </c>
+      <c r="HV58" t="n">
+        <v>136</v>
+      </c>
+      <c r="HW58" t="n">
+        <v>112</v>
+      </c>
+      <c r="HX58" t="n">
+        <v>107</v>
+      </c>
+      <c r="HY58" t="n">
+        <v>145</v>
+      </c>
+      <c r="HZ58" t="n">
+        <v>115</v>
+      </c>
+      <c r="IA58" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40944,6 +42162,27 @@
       <c r="HT59" t="n">
         <v>252</v>
       </c>
+      <c r="HU59" t="n">
+        <v>250</v>
+      </c>
+      <c r="HV59" t="n">
+        <v>282</v>
+      </c>
+      <c r="HW59" t="n">
+        <v>253</v>
+      </c>
+      <c r="HX59" t="n">
+        <v>273</v>
+      </c>
+      <c r="HY59" t="n">
+        <v>334</v>
+      </c>
+      <c r="HZ59" t="n">
+        <v>280</v>
+      </c>
+      <c r="IA59" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41632,6 +42871,27 @@
       <c r="HT60" t="n">
         <v>1.65</v>
       </c>
+      <c r="HU60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="HV60" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="HW60" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="HX60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="HY60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="HZ60" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="IA60" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42320,6 +43580,27 @@
       <c r="HT61" t="n">
         <v>53</v>
       </c>
+      <c r="HU61" t="n">
+        <v>42</v>
+      </c>
+      <c r="HV61" t="n">
+        <v>61</v>
+      </c>
+      <c r="HW61" t="n">
+        <v>54</v>
+      </c>
+      <c r="HX61" t="n">
+        <v>73</v>
+      </c>
+      <c r="HY61" t="n">
+        <v>81</v>
+      </c>
+      <c r="HZ61" t="n">
+        <v>47</v>
+      </c>
+      <c r="IA61" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43008,6 +44289,27 @@
       <c r="HT62" t="n">
         <v>50</v>
       </c>
+      <c r="HU62" t="n">
+        <v>74</v>
+      </c>
+      <c r="HV62" t="n">
+        <v>53</v>
+      </c>
+      <c r="HW62" t="n">
+        <v>49</v>
+      </c>
+      <c r="HX62" t="n">
+        <v>49</v>
+      </c>
+      <c r="HY62" t="n">
+        <v>32</v>
+      </c>
+      <c r="HZ62" t="n">
+        <v>69</v>
+      </c>
+      <c r="IA62" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43696,6 +44998,27 @@
       <c r="HT63" t="n">
         <v>32</v>
       </c>
+      <c r="HU63" t="n">
+        <v>40</v>
+      </c>
+      <c r="HV63" t="n">
+        <v>13</v>
+      </c>
+      <c r="HW63" t="n">
+        <v>29</v>
+      </c>
+      <c r="HX63" t="n">
+        <v>23</v>
+      </c>
+      <c r="HY63" t="n">
+        <v>25</v>
+      </c>
+      <c r="HZ63" t="n">
+        <v>24</v>
+      </c>
+      <c r="IA63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44384,6 +45707,27 @@
       <c r="HT64" t="n">
         <v>18</v>
       </c>
+      <c r="HU64" t="n">
+        <v>18</v>
+      </c>
+      <c r="HV64" t="n">
+        <v>13</v>
+      </c>
+      <c r="HW64" t="n">
+        <v>11</v>
+      </c>
+      <c r="HX64" t="n">
+        <v>11</v>
+      </c>
+      <c r="HY64" t="n">
+        <v>19</v>
+      </c>
+      <c r="HZ64" t="n">
+        <v>16</v>
+      </c>
+      <c r="IA64" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45072,6 +46416,27 @@
       <c r="HT65" t="n">
         <v>13</v>
       </c>
+      <c r="HU65" t="n">
+        <v>10</v>
+      </c>
+      <c r="HV65" t="n">
+        <v>16</v>
+      </c>
+      <c r="HW65" t="n">
+        <v>15</v>
+      </c>
+      <c r="HX65" t="n">
+        <v>17</v>
+      </c>
+      <c r="HY65" t="n">
+        <v>17</v>
+      </c>
+      <c r="HZ65" t="n">
+        <v>15</v>
+      </c>
+      <c r="IA65" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45760,6 +47125,27 @@
       <c r="HT66" t="n">
         <v>4</v>
       </c>
+      <c r="HU66" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV66" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW66" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX66" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY66" t="n">
+        <v>9</v>
+      </c>
+      <c r="HZ66" t="n">
+        <v>9</v>
+      </c>
+      <c r="IA66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46448,6 +47834,27 @@
       <c r="HT67" t="n">
         <v>2</v>
       </c>
+      <c r="HU67" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV67" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW67" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX67" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY67" t="n">
+        <v>7</v>
+      </c>
+      <c r="HZ67" t="n">
+        <v>6</v>
+      </c>
+      <c r="IA67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47136,6 +48543,27 @@
       <c r="HT68" t="n">
         <v>5</v>
       </c>
+      <c r="HU68" t="n">
+        <v>7</v>
+      </c>
+      <c r="HV68" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW68" t="n">
+        <v>11</v>
+      </c>
+      <c r="HX68" t="n">
+        <v>13</v>
+      </c>
+      <c r="HY68" t="n">
+        <v>7</v>
+      </c>
+      <c r="HZ68" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47824,6 +49252,27 @@
       <c r="HT69" t="n">
         <v>2</v>
       </c>
+      <c r="HU69" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HZ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48512,6 +49961,27 @@
       <c r="HT70" t="n">
         <v>11</v>
       </c>
+      <c r="HU70" t="n">
+        <v>12</v>
+      </c>
+      <c r="HV70" t="n">
+        <v>16</v>
+      </c>
+      <c r="HW70" t="n">
+        <v>17</v>
+      </c>
+      <c r="HX70" t="n">
+        <v>22</v>
+      </c>
+      <c r="HY70" t="n">
+        <v>18</v>
+      </c>
+      <c r="HZ70" t="n">
+        <v>13</v>
+      </c>
+      <c r="IA70" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49200,6 +50670,27 @@
       <c r="HT71" t="n">
         <v>36.4</v>
       </c>
+      <c r="HU71" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="HV71" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="HW71" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="HX71" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="HY71" t="n">
+        <v>50</v>
+      </c>
+      <c r="HZ71" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="IA71" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49888,6 +51379,27 @@
       <c r="HT72" t="n">
         <v>63</v>
       </c>
+      <c r="HU72" t="n">
+        <v>50</v>
+      </c>
+      <c r="HV72" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="HW72" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="HX72" t="n">
+        <v>39</v>
+      </c>
+      <c r="HY72" t="n">
+        <v>37.11</v>
+      </c>
+      <c r="HZ72" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="IA72" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50576,6 +52088,27 @@
       <c r="HT73" t="n">
         <v>22.91</v>
       </c>
+      <c r="HU73" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="HV73" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="HW73" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="HX73" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="HY73" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="HZ73" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="IA73" t="n">
+        <v>28.57</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51264,6 +52797,27 @@
       <c r="HT74" t="n">
         <v>30</v>
       </c>
+      <c r="HU74" t="n">
+        <v>31</v>
+      </c>
+      <c r="HV74" t="n">
+        <v>28</v>
+      </c>
+      <c r="HW74" t="n">
+        <v>22</v>
+      </c>
+      <c r="HX74" t="n">
+        <v>16</v>
+      </c>
+      <c r="HY74" t="n">
+        <v>25</v>
+      </c>
+      <c r="HZ74" t="n">
+        <v>39</v>
+      </c>
+      <c r="IA74" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51952,6 +53506,27 @@
       <c r="HT75" t="n">
         <v>38</v>
       </c>
+      <c r="HU75" t="n">
+        <v>38</v>
+      </c>
+      <c r="HV75" t="n">
+        <v>33</v>
+      </c>
+      <c r="HW75" t="n">
+        <v>38</v>
+      </c>
+      <c r="HX75" t="n">
+        <v>47</v>
+      </c>
+      <c r="HY75" t="n">
+        <v>51</v>
+      </c>
+      <c r="HZ75" t="n">
+        <v>52</v>
+      </c>
+      <c r="IA75" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52640,6 +54215,27 @@
       <c r="HT76" t="n">
         <v>31</v>
       </c>
+      <c r="HU76" t="n">
+        <v>31</v>
+      </c>
+      <c r="HV76" t="n">
+        <v>30</v>
+      </c>
+      <c r="HW76" t="n">
+        <v>28</v>
+      </c>
+      <c r="HX76" t="n">
+        <v>36</v>
+      </c>
+      <c r="HY76" t="n">
+        <v>33</v>
+      </c>
+      <c r="HZ76" t="n">
+        <v>34</v>
+      </c>
+      <c r="IA76" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53328,6 +54924,27 @@
       <c r="HT77" t="n">
         <v>37</v>
       </c>
+      <c r="HU77" t="n">
+        <v>28</v>
+      </c>
+      <c r="HV77" t="n">
+        <v>33</v>
+      </c>
+      <c r="HW77" t="n">
+        <v>30</v>
+      </c>
+      <c r="HX77" t="n">
+        <v>42</v>
+      </c>
+      <c r="HY77" t="n">
+        <v>47</v>
+      </c>
+      <c r="HZ77" t="n">
+        <v>40</v>
+      </c>
+      <c r="IA77" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54016,6 +55633,27 @@
       <c r="HT78" t="n">
         <v>3.36</v>
       </c>
+      <c r="HU78" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="HV78" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="HW78" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="HX78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="HY78" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="HZ78" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="IA78" t="n">
+        <v>4.29</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54704,6 +56342,27 @@
       <c r="HT79" t="n">
         <v>9.25</v>
       </c>
+      <c r="HU79" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="HV79" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="HW79" t="n">
+        <v>6</v>
+      </c>
+      <c r="HX79" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY79" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="HZ79" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="IA79" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55392,6 +57051,27 @@
       <c r="HT80" t="n">
         <v>24.3</v>
       </c>
+      <c r="HU80" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="HV80" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="HW80" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="HX80" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="HY80" t="n">
+        <v>34</v>
+      </c>
+      <c r="HZ80" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="IA80" t="n">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56080,6 +57760,27 @@
       <c r="HT81" t="n">
         <v>10.8</v>
       </c>
+      <c r="HU81" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="HV81" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="HW81" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="HX81" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="HY81" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="HZ81" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="IA81" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56768,6 +58469,27 @@
       <c r="HT82" t="n">
         <v>187.5</v>
       </c>
+      <c r="HU82" t="n">
+        <v>186</v>
+      </c>
+      <c r="HV82" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="HW82" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="HX82" t="n">
+        <v>186</v>
+      </c>
+      <c r="HY82" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="HZ82" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="IA82" t="n">
+        <v>189.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57456,6 +59178,27 @@
       <c r="HT83" t="n">
         <v>83.5</v>
       </c>
+      <c r="HU83" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="HV83" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="HW83" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="HX83" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="HY83" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="HZ83" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="IA83" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58144,6 +59887,27 @@
       <c r="HT84" t="n">
         <v>25.8</v>
       </c>
+      <c r="HU84" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="HV84" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="HW84" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="HX84" t="n">
+        <v>26</v>
+      </c>
+      <c r="HY84" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="HZ84" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="IA84" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58832,6 +60596,27 @@
       <c r="HT85" t="n">
         <v>106.2</v>
       </c>
+      <c r="HU85" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="HV85" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="HW85" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="HX85" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="HY85" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="HZ85" t="n">
+        <v>122.6</v>
+      </c>
+      <c r="IA85" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59520,6 +61305,27 @@
       <c r="HT86" t="n">
         <v>6</v>
       </c>
+      <c r="HU86" t="n">
+        <v>13</v>
+      </c>
+      <c r="HV86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW86" t="n">
+        <v>8</v>
+      </c>
+      <c r="HX86" t="n">
+        <v>8</v>
+      </c>
+      <c r="HY86" t="n">
+        <v>9</v>
+      </c>
+      <c r="HZ86" t="n">
+        <v>5</v>
+      </c>
+      <c r="IA86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60208,6 +62014,27 @@
       <c r="HT87" t="n">
         <v>5</v>
       </c>
+      <c r="HU87" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY87" t="n">
+        <v>7</v>
+      </c>
+      <c r="HZ87" t="n">
+        <v>5</v>
+      </c>
+      <c r="IA87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60896,6 +62723,27 @@
       <c r="HT88" t="n">
         <v>4</v>
       </c>
+      <c r="HU88" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV88" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX88" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY88" t="n">
+        <v>2</v>
+      </c>
+      <c r="HZ88" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61584,6 +63432,27 @@
       <c r="HT89" t="n">
         <v>7</v>
       </c>
+      <c r="HU89" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX89" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY89" t="n">
+        <v>4</v>
+      </c>
+      <c r="HZ89" t="n">
+        <v>9</v>
+      </c>
+      <c r="IA89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62272,6 +64141,27 @@
       <c r="HT90" t="n">
         <v>105</v>
       </c>
+      <c r="HU90" t="n">
+        <v>116</v>
+      </c>
+      <c r="HV90" t="n">
+        <v>103</v>
+      </c>
+      <c r="HW90" t="n">
+        <v>107</v>
+      </c>
+      <c r="HX90" t="n">
+        <v>103</v>
+      </c>
+      <c r="HY90" t="n">
+        <v>103</v>
+      </c>
+      <c r="HZ90" t="n">
+        <v>123</v>
+      </c>
+      <c r="IA90" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62960,6 +64850,27 @@
       <c r="HT91" t="n">
         <v>140</v>
       </c>
+      <c r="HU91" t="n">
+        <v>130</v>
+      </c>
+      <c r="HV91" t="n">
+        <v>175</v>
+      </c>
+      <c r="HW91" t="n">
+        <v>143</v>
+      </c>
+      <c r="HX91" t="n">
+        <v>167</v>
+      </c>
+      <c r="HY91" t="n">
+        <v>223</v>
+      </c>
+      <c r="HZ91" t="n">
+        <v>152</v>
+      </c>
+      <c r="IA91" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63648,6 +65559,27 @@
       <c r="HT92" t="n">
         <v>172</v>
       </c>
+      <c r="HU92" t="n">
+        <v>166</v>
+      </c>
+      <c r="HV92" t="n">
+        <v>201</v>
+      </c>
+      <c r="HW92" t="n">
+        <v>166</v>
+      </c>
+      <c r="HX92" t="n">
+        <v>193</v>
+      </c>
+      <c r="HY92" t="n">
+        <v>256</v>
+      </c>
+      <c r="HZ92" t="n">
+        <v>193</v>
+      </c>
+      <c r="IA92" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64336,6 +66268,27 @@
       <c r="HT93" t="n">
         <v>68.3</v>
       </c>
+      <c r="HU93" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="HV93" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="HW93" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="HX93" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="HY93" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="HZ93" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="IA93" t="n">
+        <v>63.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65024,6 +66977,27 @@
       <c r="HT94" t="n">
         <v>38</v>
       </c>
+      <c r="HU94" t="n">
+        <v>38</v>
+      </c>
+      <c r="HV94" t="n">
+        <v>33</v>
+      </c>
+      <c r="HW94" t="n">
+        <v>38</v>
+      </c>
+      <c r="HX94" t="n">
+        <v>47</v>
+      </c>
+      <c r="HY94" t="n">
+        <v>51</v>
+      </c>
+      <c r="HZ94" t="n">
+        <v>52</v>
+      </c>
+      <c r="IA94" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65712,6 +67686,27 @@
       <c r="HT95" t="n">
         <v>4</v>
       </c>
+      <c r="HU95" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV95" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW95" t="n">
+        <v>10</v>
+      </c>
+      <c r="HX95" t="n">
+        <v>11</v>
+      </c>
+      <c r="HY95" t="n">
+        <v>5</v>
+      </c>
+      <c r="HZ95" t="n">
+        <v>6</v>
+      </c>
+      <c r="IA95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66400,6 +68395,27 @@
       <c r="HT96" t="n">
         <v>2</v>
       </c>
+      <c r="HU96" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV96" t="n">
+        <v>10</v>
+      </c>
+      <c r="HW96" t="n">
+        <v>11</v>
+      </c>
+      <c r="HX96" t="n">
+        <v>14</v>
+      </c>
+      <c r="HY96" t="n">
+        <v>6</v>
+      </c>
+      <c r="HZ96" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67088,6 +69104,27 @@
       <c r="HT97" t="n">
         <v>30</v>
       </c>
+      <c r="HU97" t="n">
+        <v>31</v>
+      </c>
+      <c r="HV97" t="n">
+        <v>28</v>
+      </c>
+      <c r="HW97" t="n">
+        <v>22</v>
+      </c>
+      <c r="HX97" t="n">
+        <v>16</v>
+      </c>
+      <c r="HY97" t="n">
+        <v>25</v>
+      </c>
+      <c r="HZ97" t="n">
+        <v>39</v>
+      </c>
+      <c r="IA97" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67776,6 +69813,27 @@
       <c r="HT98" t="n">
         <v>31</v>
       </c>
+      <c r="HU98" t="n">
+        <v>31</v>
+      </c>
+      <c r="HV98" t="n">
+        <v>30</v>
+      </c>
+      <c r="HW98" t="n">
+        <v>28</v>
+      </c>
+      <c r="HX98" t="n">
+        <v>36</v>
+      </c>
+      <c r="HY98" t="n">
+        <v>33</v>
+      </c>
+      <c r="HZ98" t="n">
+        <v>34</v>
+      </c>
+      <c r="IA98" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68464,6 +70522,27 @@
       <c r="HT99" t="n">
         <v>31</v>
       </c>
+      <c r="HU99" t="n">
+        <v>28</v>
+      </c>
+      <c r="HV99" t="n">
+        <v>49</v>
+      </c>
+      <c r="HW99" t="n">
+        <v>29</v>
+      </c>
+      <c r="HX99" t="n">
+        <v>38</v>
+      </c>
+      <c r="HY99" t="n">
+        <v>35</v>
+      </c>
+      <c r="HZ99" t="n">
+        <v>37</v>
+      </c>
+      <c r="IA99" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69152,6 +71231,27 @@
       <c r="HT100" t="n">
         <v>0</v>
       </c>
+      <c r="HU100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW100" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX100" t="n">
+        <v>17</v>
+      </c>
+      <c r="HY100" t="n">
+        <v>5</v>
+      </c>
+      <c r="HZ100" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69840,6 +71940,27 @@
       <c r="HT101" t="n">
         <v>2</v>
       </c>
+      <c r="HU101" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW101" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX101" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HZ101" t="n">
+        <v>6</v>
+      </c>
+      <c r="IA101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70528,8 +72649,29 @@
       <c r="HT102" t="n">
         <v>50</v>
       </c>
+      <c r="HU102" t="n">
+        <v>40</v>
+      </c>
+      <c r="HV102" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="HW102" t="n">
+        <v>80</v>
+      </c>
+      <c r="HX102" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="HY102" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="HZ102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="IA102" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Geelong_stats.xlsx
+++ b/Geelong_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IA102"/>
+  <dimension ref="A1:IC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,6 +1061,12 @@
       <c r="IA1" t="n">
         <v>10323</v>
       </c>
+      <c r="IB1" t="n">
+        <v>10325</v>
+      </c>
+      <c r="IC1" t="n">
+        <v>10326</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1770,6 +1776,12 @@
       <c r="IA2" t="n">
         <v>2020</v>
       </c>
+      <c r="IB2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2479,6 +2491,12 @@
       <c r="IA3" t="n">
         <v>26</v>
       </c>
+      <c r="IB3" t="n">
+        <v>27</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3188,6 +3206,12 @@
       <c r="IA4" t="n">
         <v>0</v>
       </c>
+      <c r="IB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3897,6 +3921,12 @@
       <c r="IA5" t="n">
         <v>0</v>
       </c>
+      <c r="IB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4606,6 +4636,12 @@
       <c r="IA6" t="n">
         <v>100</v>
       </c>
+      <c r="IB6" t="n">
+        <v>82</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5315,6 +5351,12 @@
       <c r="IA7" t="n">
         <v>32</v>
       </c>
+      <c r="IB7" t="n">
+        <v>42</v>
+      </c>
+      <c r="IC7" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6024,6 +6066,12 @@
       <c r="IA8" t="n">
         <v>68</v>
       </c>
+      <c r="IB8" t="n">
+        <v>40</v>
+      </c>
+      <c r="IC8" t="n">
+        <v>-31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6733,6 +6781,12 @@
       <c r="IA9" t="n">
         <v>1</v>
       </c>
+      <c r="IB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7442,6 +7496,12 @@
       <c r="IA10" t="n">
         <v>4</v>
       </c>
+      <c r="IB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8151,6 +8211,12 @@
       <c r="IA11" t="n">
         <v>228</v>
       </c>
+      <c r="IB11" t="n">
+        <v>186</v>
+      </c>
+      <c r="IC11" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8860,6 +8926,12 @@
       <c r="IA12" t="n">
         <v>130</v>
       </c>
+      <c r="IB12" t="n">
+        <v>114</v>
+      </c>
+      <c r="IC12" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9569,6 +9641,12 @@
       <c r="IA13" t="n">
         <v>358</v>
       </c>
+      <c r="IB13" t="n">
+        <v>300</v>
+      </c>
+      <c r="IC13" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10278,6 +10356,12 @@
       <c r="IA14" t="n">
         <v>1.75</v>
       </c>
+      <c r="IB14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="IC14" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10987,6 +11071,12 @@
       <c r="IA15" t="n">
         <v>134</v>
       </c>
+      <c r="IB15" t="n">
+        <v>76</v>
+      </c>
+      <c r="IC15" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11696,6 +11786,12 @@
       <c r="IA16" t="n">
         <v>46</v>
       </c>
+      <c r="IB16" t="n">
+        <v>56</v>
+      </c>
+      <c r="IC16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12405,6 +12501,12 @@
       <c r="IA17" t="n">
         <v>19</v>
       </c>
+      <c r="IB17" t="n">
+        <v>38</v>
+      </c>
+      <c r="IC17" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13114,6 +13216,12 @@
       <c r="IA18" t="n">
         <v>13</v>
       </c>
+      <c r="IB18" t="n">
+        <v>7</v>
+      </c>
+      <c r="IC18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13823,6 +13931,12 @@
       <c r="IA19" t="n">
         <v>10</v>
       </c>
+      <c r="IB19" t="n">
+        <v>13</v>
+      </c>
+      <c r="IC19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14532,6 +14646,12 @@
       <c r="IA20" t="n">
         <v>15</v>
       </c>
+      <c r="IB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="IC20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15241,6 +15361,12 @@
       <c r="IA21" t="n">
         <v>12</v>
       </c>
+      <c r="IB21" t="n">
+        <v>9</v>
+      </c>
+      <c r="IC21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15950,6 +16076,12 @@
       <c r="IA22" t="n">
         <v>7</v>
       </c>
+      <c r="IB22" t="n">
+        <v>11</v>
+      </c>
+      <c r="IC22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16659,6 +16791,12 @@
       <c r="IA23" t="n">
         <v>3</v>
       </c>
+      <c r="IB23" t="n">
+        <v>5</v>
+      </c>
+      <c r="IC23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17368,6 +17506,12 @@
       <c r="IA24" t="n">
         <v>25</v>
       </c>
+      <c r="IB24" t="n">
+        <v>27</v>
+      </c>
+      <c r="IC24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18077,6 +18221,12 @@
       <c r="IA25" t="n">
         <v>60</v>
       </c>
+      <c r="IB25" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="IC25" t="n">
+        <v>46.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18786,6 +18936,12 @@
       <c r="IA26" t="n">
         <v>23.87</v>
       </c>
+      <c r="IB26" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="IC26" t="n">
+        <v>39.14</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19495,6 +19651,12 @@
       <c r="IA27" t="n">
         <v>14.32</v>
       </c>
+      <c r="IB27" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="IC27" t="n">
+        <v>18.27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20204,6 +20366,12 @@
       <c r="IA28" t="n">
         <v>34</v>
       </c>
+      <c r="IB28" t="n">
+        <v>36</v>
+      </c>
+      <c r="IC28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20913,6 +21081,12 @@
       <c r="IA29" t="n">
         <v>37</v>
       </c>
+      <c r="IB29" t="n">
+        <v>42</v>
+      </c>
+      <c r="IC29" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21622,6 +21796,12 @@
       <c r="IA30" t="n">
         <v>25</v>
       </c>
+      <c r="IB30" t="n">
+        <v>24</v>
+      </c>
+      <c r="IC30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22331,6 +22511,12 @@
       <c r="IA31" t="n">
         <v>46</v>
       </c>
+      <c r="IB31" t="n">
+        <v>50</v>
+      </c>
+      <c r="IC31" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23040,6 +23226,12 @@
       <c r="IA32" t="n">
         <v>1.84</v>
       </c>
+      <c r="IB32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="IC32" t="n">
+        <v>2.67</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23749,6 +23941,12 @@
       <c r="IA33" t="n">
         <v>3.07</v>
       </c>
+      <c r="IB33" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="IC33" t="n">
+        <v>5.71</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24458,6 +24656,12 @@
       <c r="IA34" t="n">
         <v>47.8</v>
       </c>
+      <c r="IB34" t="n">
+        <v>44</v>
+      </c>
+      <c r="IC34" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25167,6 +25371,12 @@
       <c r="IA35" t="n">
         <v>32.6</v>
       </c>
+      <c r="IB35" t="n">
+        <v>22</v>
+      </c>
+      <c r="IC35" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25876,6 +26086,12 @@
       <c r="IA36" t="n">
         <v>188.6</v>
       </c>
+      <c r="IB36" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="IC36" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26585,6 +26801,12 @@
       <c r="IA37" t="n">
         <v>89.3</v>
       </c>
+      <c r="IB37" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="IC37" t="n">
+        <v>89.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27294,6 +27516,12 @@
       <c r="IA38" t="n">
         <v>28.24</v>
       </c>
+      <c r="IB38" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="IC38" t="n">
+        <v>28.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28003,6 +28231,12 @@
       <c r="IA39" t="n">
         <v>160.9</v>
       </c>
+      <c r="IB39" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="IC39" t="n">
+        <v>162.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28712,6 +28946,12 @@
       <c r="IA40" t="n">
         <v>3</v>
       </c>
+      <c r="IB40" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29421,6 +29661,12 @@
       <c r="IA41" t="n">
         <v>4</v>
       </c>
+      <c r="IB41" t="n">
+        <v>5</v>
+      </c>
+      <c r="IC41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30130,6 +30376,12 @@
       <c r="IA42" t="n">
         <v>4</v>
       </c>
+      <c r="IB42" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30839,6 +31091,12 @@
       <c r="IA43" t="n">
         <v>11</v>
       </c>
+      <c r="IB43" t="n">
+        <v>11</v>
+      </c>
+      <c r="IC43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31548,6 +31806,12 @@
       <c r="IA44" t="n">
         <v>107</v>
       </c>
+      <c r="IB44" t="n">
+        <v>118</v>
+      </c>
+      <c r="IC44" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32257,6 +32521,12 @@
       <c r="IA45" t="n">
         <v>251</v>
       </c>
+      <c r="IB45" t="n">
+        <v>177</v>
+      </c>
+      <c r="IC45" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32966,6 +33236,12 @@
       <c r="IA46" t="n">
         <v>287</v>
       </c>
+      <c r="IB46" t="n">
+        <v>214</v>
+      </c>
+      <c r="IC46" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33675,6 +33951,12 @@
       <c r="IA47" t="n">
         <v>80.2</v>
       </c>
+      <c r="IB47" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="IC47" t="n">
+        <v>61.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34384,6 +34666,12 @@
       <c r="IA48" t="n">
         <v>37</v>
       </c>
+      <c r="IB48" t="n">
+        <v>42</v>
+      </c>
+      <c r="IC48" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35093,6 +35381,12 @@
       <c r="IA49" t="n">
         <v>14</v>
       </c>
+      <c r="IB49" t="n">
+        <v>7</v>
+      </c>
+      <c r="IC49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35802,6 +36096,12 @@
       <c r="IA50" t="n">
         <v>17</v>
       </c>
+      <c r="IB50" t="n">
+        <v>14</v>
+      </c>
+      <c r="IC50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36511,6 +36811,12 @@
       <c r="IA51" t="n">
         <v>34</v>
       </c>
+      <c r="IB51" t="n">
+        <v>36</v>
+      </c>
+      <c r="IC51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37220,6 +37526,12 @@
       <c r="IA52" t="n">
         <v>25</v>
       </c>
+      <c r="IB52" t="n">
+        <v>24</v>
+      </c>
+      <c r="IC52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37929,6 +38241,12 @@
       <c r="IA53" t="n">
         <v>34</v>
       </c>
+      <c r="IB53" t="n">
+        <v>33</v>
+      </c>
+      <c r="IC53" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38638,6 +38956,12 @@
       <c r="IA54" t="n">
         <v>1</v>
       </c>
+      <c r="IB54" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39347,6 +39671,12 @@
       <c r="IA55" t="n">
         <v>12</v>
       </c>
+      <c r="IB55" t="n">
+        <v>9</v>
+      </c>
+      <c r="IC55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40056,6 +40386,12 @@
       <c r="IA56" t="n">
         <v>80</v>
       </c>
+      <c r="IB56" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="IC56" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40765,6 +41101,12 @@
       <c r="IA57" t="n">
         <v>120</v>
       </c>
+      <c r="IB57" t="n">
+        <v>142</v>
+      </c>
+      <c r="IC57" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41474,6 +41816,12 @@
       <c r="IA58" t="n">
         <v>80</v>
       </c>
+      <c r="IB58" t="n">
+        <v>93</v>
+      </c>
+      <c r="IC58" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42183,6 +42531,12 @@
       <c r="IA59" t="n">
         <v>200</v>
       </c>
+      <c r="IB59" t="n">
+        <v>235</v>
+      </c>
+      <c r="IC59" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42892,6 +43246,12 @@
       <c r="IA60" t="n">
         <v>1.5</v>
       </c>
+      <c r="IB60" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="IC60" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43601,6 +43961,12 @@
       <c r="IA61" t="n">
         <v>46</v>
       </c>
+      <c r="IB61" t="n">
+        <v>56</v>
+      </c>
+      <c r="IC61" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44310,6 +44676,12 @@
       <c r="IA62" t="n">
         <v>50</v>
       </c>
+      <c r="IB62" t="n">
+        <v>53</v>
+      </c>
+      <c r="IC62" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45019,6 +45391,12 @@
       <c r="IA63" t="n">
         <v>37</v>
       </c>
+      <c r="IB63" t="n">
+        <v>36</v>
+      </c>
+      <c r="IC63" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45728,6 +46106,12 @@
       <c r="IA64" t="n">
         <v>10</v>
       </c>
+      <c r="IB64" t="n">
+        <v>13</v>
+      </c>
+      <c r="IC64" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46437,6 +46821,12 @@
       <c r="IA65" t="n">
         <v>13</v>
       </c>
+      <c r="IB65" t="n">
+        <v>7</v>
+      </c>
+      <c r="IC65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47146,6 +47536,12 @@
       <c r="IA66" t="n">
         <v>5</v>
       </c>
+      <c r="IB66" t="n">
+        <v>6</v>
+      </c>
+      <c r="IC66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47855,6 +48251,12 @@
       <c r="IA67" t="n">
         <v>3</v>
       </c>
+      <c r="IB67" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48564,6 +48966,12 @@
       <c r="IA68" t="n">
         <v>2</v>
       </c>
+      <c r="IB68" t="n">
+        <v>6</v>
+      </c>
+      <c r="IC68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49273,6 +49681,12 @@
       <c r="IA69" t="n">
         <v>0</v>
       </c>
+      <c r="IB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49982,6 +50396,12 @@
       <c r="IA70" t="n">
         <v>7</v>
       </c>
+      <c r="IB70" t="n">
+        <v>12</v>
+      </c>
+      <c r="IC70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50691,6 +51111,12 @@
       <c r="IA71" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IB71" t="n">
+        <v>50</v>
+      </c>
+      <c r="IC71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51400,6 +51826,12 @@
       <c r="IA72" t="n">
         <v>40</v>
       </c>
+      <c r="IB72" t="n">
+        <v>39.17</v>
+      </c>
+      <c r="IC72" t="n">
+        <v>23.17</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52109,6 +52541,12 @@
       <c r="IA73" t="n">
         <v>28.57</v>
       </c>
+      <c r="IB73" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="IC73" t="n">
+        <v>13.24</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52818,6 +53256,12 @@
       <c r="IA74" t="n">
         <v>21</v>
       </c>
+      <c r="IB74" t="n">
+        <v>33</v>
+      </c>
+      <c r="IC74" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53527,6 +53971,12 @@
       <c r="IA75" t="n">
         <v>48</v>
       </c>
+      <c r="IB75" t="n">
+        <v>41</v>
+      </c>
+      <c r="IC75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54236,6 +54686,12 @@
       <c r="IA76" t="n">
         <v>28</v>
       </c>
+      <c r="IB76" t="n">
+        <v>37</v>
+      </c>
+      <c r="IC76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54945,6 +55401,12 @@
       <c r="IA77" t="n">
         <v>30</v>
       </c>
+      <c r="IB77" t="n">
+        <v>32</v>
+      </c>
+      <c r="IC77" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55654,6 +56116,12 @@
       <c r="IA78" t="n">
         <v>4.29</v>
       </c>
+      <c r="IB78" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="IC78" t="n">
+        <v>2.33</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56363,6 +56831,12 @@
       <c r="IA79" t="n">
         <v>6</v>
       </c>
+      <c r="IB79" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="IC79" t="n">
+        <v>4.08</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57072,6 +57546,12 @@
       <c r="IA80" t="n">
         <v>23.3</v>
       </c>
+      <c r="IB80" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="IC80" t="n">
+        <v>36.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57781,6 +58261,12 @@
       <c r="IA81" t="n">
         <v>16.7</v>
       </c>
+      <c r="IB81" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="IC81" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58490,6 +58976,12 @@
       <c r="IA82" t="n">
         <v>189.3</v>
       </c>
+      <c r="IB82" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="IC82" t="n">
+        <v>185.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59199,6 +59691,12 @@
       <c r="IA83" t="n">
         <v>89</v>
       </c>
+      <c r="IB83" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="IC83" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59908,6 +60406,12 @@
       <c r="IA84" t="n">
         <v>26.8</v>
       </c>
+      <c r="IB84" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="IC84" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60617,6 +61121,12 @@
       <c r="IA85" t="n">
         <v>112</v>
       </c>
+      <c r="IB85" t="n">
+        <v>114</v>
+      </c>
+      <c r="IC85" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61326,6 +61836,12 @@
       <c r="IA86" t="n">
         <v>5</v>
       </c>
+      <c r="IB86" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62035,6 +62551,12 @@
       <c r="IA87" t="n">
         <v>5</v>
       </c>
+      <c r="IB87" t="n">
+        <v>7</v>
+      </c>
+      <c r="IC87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62744,6 +63266,12 @@
       <c r="IA88" t="n">
         <v>4</v>
       </c>
+      <c r="IB88" t="n">
+        <v>5</v>
+      </c>
+      <c r="IC88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63453,6 +63981,12 @@
       <c r="IA89" t="n">
         <v>8</v>
       </c>
+      <c r="IB89" t="n">
+        <v>6</v>
+      </c>
+      <c r="IC89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64162,6 +64696,12 @@
       <c r="IA90" t="n">
         <v>85</v>
       </c>
+      <c r="IB90" t="n">
+        <v>102</v>
+      </c>
+      <c r="IC90" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64871,6 +65411,12 @@
       <c r="IA91" t="n">
         <v>109</v>
       </c>
+      <c r="IB91" t="n">
+        <v>112</v>
+      </c>
+      <c r="IC91" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65580,6 +66126,12 @@
       <c r="IA92" t="n">
         <v>127</v>
       </c>
+      <c r="IB92" t="n">
+        <v>148</v>
+      </c>
+      <c r="IC92" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66289,6 +66841,12 @@
       <c r="IA93" t="n">
         <v>63.5</v>
       </c>
+      <c r="IB93" t="n">
+        <v>63</v>
+      </c>
+      <c r="IC93" t="n">
+        <v>62.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66998,6 +67556,12 @@
       <c r="IA94" t="n">
         <v>48</v>
       </c>
+      <c r="IB94" t="n">
+        <v>41</v>
+      </c>
+      <c r="IC94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67707,6 +68271,12 @@
       <c r="IA95" t="n">
         <v>8</v>
       </c>
+      <c r="IB95" t="n">
+        <v>13</v>
+      </c>
+      <c r="IC95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68416,6 +68986,12 @@
       <c r="IA96" t="n">
         <v>5</v>
       </c>
+      <c r="IB96" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69125,6 +69701,12 @@
       <c r="IA97" t="n">
         <v>21</v>
       </c>
+      <c r="IB97" t="n">
+        <v>33</v>
+      </c>
+      <c r="IC97" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69834,6 +70416,12 @@
       <c r="IA98" t="n">
         <v>28</v>
       </c>
+      <c r="IB98" t="n">
+        <v>37</v>
+      </c>
+      <c r="IC98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70543,6 +71131,12 @@
       <c r="IA99" t="n">
         <v>35</v>
       </c>
+      <c r="IB99" t="n">
+        <v>32</v>
+      </c>
+      <c r="IC99" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71252,6 +71846,12 @@
       <c r="IA100" t="n">
         <v>2</v>
       </c>
+      <c r="IB100" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71961,6 +72561,12 @@
       <c r="IA101" t="n">
         <v>3</v>
       </c>
+      <c r="IB101" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72670,8 +73276,14 @@
       <c r="IA102" t="n">
         <v>60</v>
       </c>
+      <c r="IB102" t="n">
+        <v>50</v>
+      </c>
+      <c r="IC102" t="n">
+        <v>83.3</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>